--- a/pred_ohlcv/54/2019-10-24 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-24 ETC ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H302"/>
+  <dimension ref="A1:I282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4941</v>
+        <v>4933</v>
       </c>
       <c r="C2" t="n">
-        <v>4942</v>
+        <v>4933</v>
       </c>
       <c r="D2" t="n">
-        <v>4942</v>
+        <v>4933</v>
       </c>
       <c r="E2" t="n">
-        <v>4941</v>
+        <v>4933</v>
       </c>
       <c r="F2" t="n">
-        <v>101.4</v>
+        <v>42.8897</v>
       </c>
       <c r="G2" t="n">
-        <v>4944.45</v>
+        <v>4943.516666666666</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4950</v>
+        <v>4941</v>
       </c>
       <c r="C3" t="n">
-        <v>4957</v>
+        <v>4942</v>
       </c>
       <c r="D3" t="n">
-        <v>4957</v>
+        <v>4942</v>
       </c>
       <c r="E3" t="n">
-        <v>4950</v>
+        <v>4941</v>
       </c>
       <c r="F3" t="n">
-        <v>152.8431</v>
+        <v>101.4</v>
       </c>
       <c r="G3" t="n">
-        <v>4944.516666666666</v>
+        <v>4944.45</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4951</v>
+        <v>4950</v>
       </c>
       <c r="C4" t="n">
-        <v>4951</v>
+        <v>4957</v>
       </c>
       <c r="D4" t="n">
-        <v>4951</v>
+        <v>4957</v>
       </c>
       <c r="E4" t="n">
-        <v>4951</v>
+        <v>4950</v>
       </c>
       <c r="F4" t="n">
-        <v>95.6345</v>
+        <v>152.8431</v>
       </c>
       <c r="G4" t="n">
-        <v>4944.716666666666</v>
+        <v>4944.516666666666</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4950</v>
+        <v>4951</v>
       </c>
       <c r="C5" t="n">
-        <v>4944</v>
+        <v>4951</v>
       </c>
       <c r="D5" t="n">
-        <v>4950</v>
+        <v>4951</v>
       </c>
       <c r="E5" t="n">
-        <v>4944</v>
+        <v>4951</v>
       </c>
       <c r="F5" t="n">
-        <v>112.8408</v>
+        <v>95.6345</v>
       </c>
       <c r="G5" t="n">
-        <v>4944.2</v>
+        <v>4944.716666666666</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4945</v>
+        <v>4950</v>
       </c>
       <c r="C6" t="n">
-        <v>4945</v>
+        <v>4944</v>
       </c>
       <c r="D6" t="n">
-        <v>4945</v>
+        <v>4950</v>
       </c>
       <c r="E6" t="n">
-        <v>4945</v>
+        <v>4944</v>
       </c>
       <c r="F6" t="n">
-        <v>88.3481</v>
+        <v>112.8408</v>
       </c>
       <c r="G6" t="n">
-        <v>4943.366666666667</v>
+        <v>4944.2</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4949</v>
+        <v>4945</v>
       </c>
       <c r="C7" t="n">
-        <v>4941</v>
+        <v>4945</v>
       </c>
       <c r="D7" t="n">
-        <v>4949</v>
+        <v>4945</v>
       </c>
       <c r="E7" t="n">
-        <v>4941</v>
+        <v>4945</v>
       </c>
       <c r="F7" t="n">
-        <v>403.922</v>
+        <v>88.3481</v>
       </c>
       <c r="G7" t="n">
-        <v>4942.65</v>
+        <v>4943.366666666667</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4952</v>
+        <v>4949</v>
       </c>
       <c r="C8" t="n">
-        <v>4966</v>
+        <v>4941</v>
       </c>
       <c r="D8" t="n">
-        <v>4966</v>
+        <v>4949</v>
       </c>
       <c r="E8" t="n">
-        <v>4952</v>
+        <v>4941</v>
       </c>
       <c r="F8" t="n">
-        <v>85.14960000000001</v>
+        <v>403.922</v>
       </c>
       <c r="G8" t="n">
-        <v>4942.75</v>
+        <v>4942.65</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4969</v>
+        <v>4952</v>
       </c>
       <c r="C9" t="n">
-        <v>4960</v>
+        <v>4966</v>
       </c>
       <c r="D9" t="n">
-        <v>4969</v>
+        <v>4966</v>
       </c>
       <c r="E9" t="n">
-        <v>4960</v>
+        <v>4952</v>
       </c>
       <c r="F9" t="n">
-        <v>11.6781</v>
+        <v>85.14960000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>4942.833333333333</v>
+        <v>4942.75</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4957</v>
+        <v>4969</v>
       </c>
       <c r="C10" t="n">
-        <v>4957</v>
+        <v>4960</v>
       </c>
       <c r="D10" t="n">
-        <v>4957</v>
+        <v>4969</v>
       </c>
       <c r="E10" t="n">
-        <v>4957</v>
+        <v>4960</v>
       </c>
       <c r="F10" t="n">
-        <v>5.02</v>
+        <v>11.6781</v>
       </c>
       <c r="G10" t="n">
-        <v>4942.866666666667</v>
+        <v>4942.833333333333</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -645,21 +677,24 @@
         <v>4957</v>
       </c>
       <c r="C11" t="n">
-        <v>4956</v>
+        <v>4957</v>
       </c>
       <c r="D11" t="n">
         <v>4957</v>
       </c>
       <c r="E11" t="n">
-        <v>4956</v>
+        <v>4957</v>
       </c>
       <c r="F11" t="n">
-        <v>19.5077</v>
+        <v>5.02</v>
       </c>
       <c r="G11" t="n">
-        <v>4942.95</v>
+        <v>4942.866666666667</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4962</v>
+        <v>4957</v>
       </c>
       <c r="C12" t="n">
-        <v>4962</v>
+        <v>4956</v>
       </c>
       <c r="D12" t="n">
-        <v>4962</v>
+        <v>4957</v>
       </c>
       <c r="E12" t="n">
-        <v>4962</v>
+        <v>4956</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>19.5077</v>
       </c>
       <c r="G12" t="n">
-        <v>4942.966666666666</v>
+        <v>4942.95</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4953</v>
+        <v>4962</v>
       </c>
       <c r="C13" t="n">
-        <v>4953</v>
+        <v>4962</v>
       </c>
       <c r="D13" t="n">
-        <v>4953</v>
+        <v>4962</v>
       </c>
       <c r="E13" t="n">
-        <v>4953</v>
+        <v>4962</v>
       </c>
       <c r="F13" t="n">
-        <v>1.7559</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>4942.85</v>
+        <v>4942.966666666666</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4965</v>
+        <v>4953</v>
       </c>
       <c r="C14" t="n">
-        <v>4965</v>
+        <v>4953</v>
       </c>
       <c r="D14" t="n">
-        <v>4965</v>
+        <v>4953</v>
       </c>
       <c r="E14" t="n">
-        <v>4965</v>
+        <v>4953</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5001007049345418</v>
+        <v>1.7559</v>
       </c>
       <c r="G14" t="n">
-        <v>4942.9</v>
+        <v>4942.85</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -758,12 +802,15 @@
         <v>4965</v>
       </c>
       <c r="F15" t="n">
-        <v>2.0901</v>
+        <v>0.5001007049345418</v>
       </c>
       <c r="G15" t="n">
-        <v>4942.933333333333</v>
+        <v>4942.9</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -784,12 +831,15 @@
         <v>4965</v>
       </c>
       <c r="F16" t="n">
-        <v>1.178</v>
+        <v>2.0901</v>
       </c>
       <c r="G16" t="n">
-        <v>4942.883333333333</v>
+        <v>4942.933333333333</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4975</v>
+        <v>4965</v>
       </c>
       <c r="C17" t="n">
-        <v>4975</v>
+        <v>4965</v>
       </c>
       <c r="D17" t="n">
-        <v>4975</v>
+        <v>4965</v>
       </c>
       <c r="E17" t="n">
-        <v>4975</v>
+        <v>4965</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>1.178</v>
       </c>
       <c r="G17" t="n">
-        <v>4942.966666666666</v>
+        <v>4942.883333333333</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4960</v>
+        <v>4975</v>
       </c>
       <c r="C18" t="n">
-        <v>4960</v>
+        <v>4975</v>
       </c>
       <c r="D18" t="n">
-        <v>4960</v>
+        <v>4975</v>
       </c>
       <c r="E18" t="n">
-        <v>4960</v>
+        <v>4975</v>
       </c>
       <c r="F18" t="n">
-        <v>3.3217</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>4943</v>
+        <v>4942.966666666666</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -859,15 +915,18 @@
         <v>4960</v>
       </c>
       <c r="E19" t="n">
-        <v>4957</v>
+        <v>4960</v>
       </c>
       <c r="F19" t="n">
-        <v>917.2371000000001</v>
+        <v>3.3217</v>
       </c>
       <c r="G19" t="n">
-        <v>4943.15</v>
+        <v>4943</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -879,21 +938,24 @@
         <v>4960</v>
       </c>
       <c r="C20" t="n">
-        <v>4966</v>
+        <v>4960</v>
       </c>
       <c r="D20" t="n">
-        <v>4966</v>
+        <v>4960</v>
       </c>
       <c r="E20" t="n">
-        <v>4960</v>
+        <v>4957</v>
       </c>
       <c r="F20" t="n">
-        <v>282.9284</v>
+        <v>917.2371000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>4943.416666666667</v>
+        <v>4943.15</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>4960</v>
+      </c>
+      <c r="C21" t="n">
         <v>4966</v>
       </c>
-      <c r="C21" t="n">
-        <v>4972</v>
-      </c>
       <c r="D21" t="n">
-        <v>4972</v>
+        <v>4966</v>
       </c>
       <c r="E21" t="n">
-        <v>4966</v>
+        <v>4960</v>
       </c>
       <c r="F21" t="n">
-        <v>69.49630000000001</v>
+        <v>282.9284</v>
       </c>
       <c r="G21" t="n">
-        <v>4943.95</v>
+        <v>4943.416666666667</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4981</v>
+        <v>4966</v>
       </c>
       <c r="C22" t="n">
-        <v>4981</v>
+        <v>4972</v>
       </c>
       <c r="D22" t="n">
-        <v>4981</v>
+        <v>4972</v>
       </c>
       <c r="E22" t="n">
-        <v>4981</v>
+        <v>4966</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5001003814495081</v>
+        <v>69.49630000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>4944.75</v>
+        <v>4943.95</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4970</v>
+        <v>4981</v>
       </c>
       <c r="C23" t="n">
-        <v>4969</v>
+        <v>4981</v>
       </c>
       <c r="D23" t="n">
-        <v>4970</v>
+        <v>4981</v>
       </c>
       <c r="E23" t="n">
-        <v>4969</v>
+        <v>4981</v>
       </c>
       <c r="F23" t="n">
-        <v>260.3076</v>
+        <v>0.5001003814495081</v>
       </c>
       <c r="G23" t="n">
-        <v>4945.35</v>
+        <v>4944.75</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4958</v>
+        <v>4970</v>
       </c>
       <c r="C24" t="n">
-        <v>4966</v>
+        <v>4969</v>
       </c>
       <c r="D24" t="n">
-        <v>4966</v>
+        <v>4970</v>
       </c>
       <c r="E24" t="n">
-        <v>4958</v>
+        <v>4969</v>
       </c>
       <c r="F24" t="n">
-        <v>33</v>
+        <v>260.3076</v>
       </c>
       <c r="G24" t="n">
-        <v>4945.966666666666</v>
+        <v>4945.35</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4971</v>
+        <v>4958</v>
       </c>
       <c r="C25" t="n">
-        <v>4971</v>
+        <v>4966</v>
       </c>
       <c r="D25" t="n">
-        <v>4971</v>
+        <v>4966</v>
       </c>
       <c r="E25" t="n">
-        <v>4971</v>
+        <v>4958</v>
       </c>
       <c r="F25" t="n">
-        <v>1.9346</v>
+        <v>33</v>
       </c>
       <c r="G25" t="n">
-        <v>4946.316666666667</v>
+        <v>4945.966666666666</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,7 +1109,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4959</v>
+        <v>4971</v>
       </c>
       <c r="C26" t="n">
         <v>4971</v>
@@ -1041,15 +1118,18 @@
         <v>4971</v>
       </c>
       <c r="E26" t="n">
-        <v>4958</v>
+        <v>4971</v>
       </c>
       <c r="F26" t="n">
-        <v>414.5729</v>
+        <v>1.9346</v>
       </c>
       <c r="G26" t="n">
-        <v>4946.6</v>
+        <v>4946.316666666667</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4970</v>
+        <v>4959</v>
       </c>
       <c r="C27" t="n">
-        <v>4970</v>
+        <v>4971</v>
       </c>
       <c r="D27" t="n">
-        <v>4970</v>
+        <v>4971</v>
       </c>
       <c r="E27" t="n">
-        <v>4970</v>
+        <v>4958</v>
       </c>
       <c r="F27" t="n">
-        <v>1.0787</v>
+        <v>414.5729</v>
       </c>
       <c r="G27" t="n">
-        <v>4946.933333333333</v>
+        <v>4946.6</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4963</v>
+        <v>4970</v>
       </c>
       <c r="C28" t="n">
-        <v>4962</v>
+        <v>4970</v>
       </c>
       <c r="D28" t="n">
-        <v>4963</v>
+        <v>4970</v>
       </c>
       <c r="E28" t="n">
-        <v>4962</v>
+        <v>4970</v>
       </c>
       <c r="F28" t="n">
-        <v>110.7898</v>
+        <v>1.0787</v>
       </c>
       <c r="G28" t="n">
-        <v>4947.133333333333</v>
+        <v>4946.933333333333</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4954</v>
+        <v>4963</v>
       </c>
       <c r="C29" t="n">
-        <v>4950</v>
+        <v>4962</v>
       </c>
       <c r="D29" t="n">
-        <v>4954</v>
+        <v>4963</v>
       </c>
       <c r="E29" t="n">
-        <v>4950</v>
+        <v>4962</v>
       </c>
       <c r="F29" t="n">
-        <v>80.717</v>
+        <v>110.7898</v>
       </c>
       <c r="G29" t="n">
-        <v>4947.25</v>
+        <v>4947.133333333333</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4939</v>
+        <v>4954</v>
       </c>
       <c r="C30" t="n">
-        <v>4939</v>
+        <v>4950</v>
       </c>
       <c r="D30" t="n">
-        <v>4939</v>
+        <v>4954</v>
       </c>
       <c r="E30" t="n">
-        <v>4939</v>
+        <v>4950</v>
       </c>
       <c r="F30" t="n">
-        <v>18.7307</v>
+        <v>80.717</v>
       </c>
       <c r="G30" t="n">
-        <v>4947.516666666666</v>
+        <v>4947.25</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4933</v>
+        <v>4939</v>
       </c>
       <c r="C31" t="n">
-        <v>4933</v>
+        <v>4939</v>
       </c>
       <c r="D31" t="n">
-        <v>4933</v>
+        <v>4939</v>
       </c>
       <c r="E31" t="n">
-        <v>4933</v>
+        <v>4939</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8189</v>
+        <v>18.7307</v>
       </c>
       <c r="G31" t="n">
-        <v>4947.566666666667</v>
+        <v>4947.516666666666</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4939</v>
+        <v>4933</v>
       </c>
       <c r="C32" t="n">
-        <v>4939</v>
+        <v>4933</v>
       </c>
       <c r="D32" t="n">
-        <v>4939</v>
+        <v>4933</v>
       </c>
       <c r="E32" t="n">
-        <v>4939</v>
+        <v>4933</v>
       </c>
       <c r="F32" t="n">
-        <v>82.6448</v>
+        <v>0.8189</v>
       </c>
       <c r="G32" t="n">
-        <v>4948.066666666667</v>
+        <v>4947.566666666667</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4933</v>
+        <v>4939</v>
       </c>
       <c r="C33" t="n">
-        <v>4930</v>
+        <v>4939</v>
       </c>
       <c r="D33" t="n">
-        <v>4933</v>
+        <v>4939</v>
       </c>
       <c r="E33" t="n">
-        <v>4918</v>
+        <v>4939</v>
       </c>
       <c r="F33" t="n">
-        <v>410.8185</v>
+        <v>82.6448</v>
       </c>
       <c r="G33" t="n">
-        <v>4948.883333333333</v>
+        <v>4948.066666666667</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4925</v>
+        <v>4933</v>
       </c>
       <c r="C34" t="n">
-        <v>4925</v>
+        <v>4930</v>
       </c>
       <c r="D34" t="n">
-        <v>4925</v>
+        <v>4933</v>
       </c>
       <c r="E34" t="n">
-        <v>4925</v>
+        <v>4918</v>
       </c>
       <c r="F34" t="n">
-        <v>380.7573</v>
+        <v>410.8185</v>
       </c>
       <c r="G34" t="n">
-        <v>4949.183333333333</v>
+        <v>4948.883333333333</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4938</v>
+        <v>4925</v>
       </c>
       <c r="C35" t="n">
-        <v>4942</v>
+        <v>4925</v>
       </c>
       <c r="D35" t="n">
-        <v>4942</v>
+        <v>4925</v>
       </c>
       <c r="E35" t="n">
-        <v>4938</v>
+        <v>4925</v>
       </c>
       <c r="F35" t="n">
-        <v>22.068</v>
+        <v>380.7573</v>
       </c>
       <c r="G35" t="n">
-        <v>4949.633333333333</v>
+        <v>4949.183333333333</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,7 +1399,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4942</v>
+        <v>4938</v>
       </c>
       <c r="C36" t="n">
         <v>4942</v>
@@ -1301,15 +1408,18 @@
         <v>4942</v>
       </c>
       <c r="E36" t="n">
-        <v>4942</v>
+        <v>4938</v>
       </c>
       <c r="F36" t="n">
-        <v>12.7547</v>
+        <v>22.068</v>
       </c>
       <c r="G36" t="n">
-        <v>4950</v>
+        <v>4949.633333333333</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4943</v>
+        <v>4942</v>
       </c>
       <c r="C37" t="n">
-        <v>4943</v>
+        <v>4942</v>
       </c>
       <c r="D37" t="n">
-        <v>4943</v>
+        <v>4942</v>
       </c>
       <c r="E37" t="n">
-        <v>4943</v>
+        <v>4942</v>
       </c>
       <c r="F37" t="n">
-        <v>6.7796</v>
+        <v>12.7547</v>
       </c>
       <c r="G37" t="n">
-        <v>4950.466666666666</v>
+        <v>4950</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4932</v>
+        <v>4943</v>
       </c>
       <c r="C38" t="n">
-        <v>4935</v>
+        <v>4943</v>
       </c>
       <c r="D38" t="n">
-        <v>4935</v>
+        <v>4943</v>
       </c>
       <c r="E38" t="n">
-        <v>4930</v>
+        <v>4943</v>
       </c>
       <c r="F38" t="n">
-        <v>109.4127</v>
+        <v>6.7796</v>
       </c>
       <c r="G38" t="n">
-        <v>4950.55</v>
+        <v>4950.466666666666</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4929</v>
+        <v>4932</v>
       </c>
       <c r="C39" t="n">
-        <v>4929</v>
+        <v>4935</v>
       </c>
       <c r="D39" t="n">
-        <v>4929</v>
+        <v>4935</v>
       </c>
       <c r="E39" t="n">
-        <v>4929</v>
+        <v>4930</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>109.4127</v>
       </c>
       <c r="G39" t="n">
-        <v>4950.616666666667</v>
+        <v>4950.55</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4915</v>
+        <v>4929</v>
       </c>
       <c r="C40" t="n">
-        <v>4925</v>
+        <v>4929</v>
       </c>
       <c r="D40" t="n">
-        <v>4925</v>
+        <v>4929</v>
       </c>
       <c r="E40" t="n">
-        <v>4915</v>
+        <v>4929</v>
       </c>
       <c r="F40" t="n">
-        <v>105.284</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
         <v>4950.616666666667</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,7 +1544,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4920</v>
+        <v>4915</v>
       </c>
       <c r="C41" t="n">
         <v>4925</v>
@@ -1431,15 +1553,18 @@
         <v>4925</v>
       </c>
       <c r="E41" t="n">
-        <v>4920</v>
+        <v>4915</v>
       </c>
       <c r="F41" t="n">
-        <v>400.9991</v>
+        <v>105.284</v>
       </c>
       <c r="G41" t="n">
-        <v>4950.4</v>
+        <v>4950.616666666667</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4933</v>
+        <v>4920</v>
       </c>
       <c r="C42" t="n">
-        <v>4933</v>
+        <v>4925</v>
       </c>
       <c r="D42" t="n">
-        <v>4933</v>
+        <v>4925</v>
       </c>
       <c r="E42" t="n">
-        <v>4933</v>
+        <v>4920</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2199472937360633</v>
+        <v>400.9991</v>
       </c>
       <c r="G42" t="n">
-        <v>4950.116666666667</v>
+        <v>4950.4</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4930</v>
+        <v>4933</v>
       </c>
       <c r="C43" t="n">
-        <v>4930</v>
+        <v>4933</v>
       </c>
       <c r="D43" t="n">
-        <v>4930</v>
+        <v>4933</v>
       </c>
       <c r="E43" t="n">
-        <v>4930</v>
+        <v>4933</v>
       </c>
       <c r="F43" t="n">
-        <v>0.507</v>
+        <v>0.2199472937360633</v>
       </c>
       <c r="G43" t="n">
-        <v>4949.916666666667</v>
+        <v>4950.116666666667</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1512,12 +1643,15 @@
         <v>4930</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8</v>
+        <v>0.507</v>
       </c>
       <c r="G44" t="n">
-        <v>4949.283333333334</v>
+        <v>4949.916666666667</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4928</v>
+        <v>4930</v>
       </c>
       <c r="C45" t="n">
-        <v>4910</v>
+        <v>4930</v>
       </c>
       <c r="D45" t="n">
-        <v>4928</v>
+        <v>4930</v>
       </c>
       <c r="E45" t="n">
-        <v>4910</v>
+        <v>4930</v>
       </c>
       <c r="F45" t="n">
-        <v>328.6081662337662</v>
+        <v>0.8</v>
       </c>
       <c r="G45" t="n">
-        <v>4948.25</v>
+        <v>4949.283333333334</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4909</v>
+        <v>4928</v>
       </c>
       <c r="C46" t="n">
-        <v>4925</v>
+        <v>4910</v>
       </c>
       <c r="D46" t="n">
-        <v>4925</v>
+        <v>4928</v>
       </c>
       <c r="E46" t="n">
-        <v>4902</v>
+        <v>4910</v>
       </c>
       <c r="F46" t="n">
-        <v>221.8391</v>
+        <v>328.6081662337662</v>
       </c>
       <c r="G46" t="n">
-        <v>4947.666666666667</v>
+        <v>4948.25</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4920</v>
+        <v>4909</v>
       </c>
       <c r="C47" t="n">
-        <v>4918</v>
+        <v>4925</v>
       </c>
       <c r="D47" t="n">
-        <v>4920</v>
+        <v>4925</v>
       </c>
       <c r="E47" t="n">
-        <v>4907</v>
+        <v>4902</v>
       </c>
       <c r="F47" t="n">
-        <v>245.4406</v>
+        <v>221.8391</v>
       </c>
       <c r="G47" t="n">
-        <v>4947.166666666667</v>
+        <v>4947.666666666667</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4909</v>
+        <v>4920</v>
       </c>
       <c r="C48" t="n">
-        <v>4920</v>
+        <v>4918</v>
       </c>
       <c r="D48" t="n">
         <v>4920</v>
       </c>
       <c r="E48" t="n">
-        <v>4909</v>
+        <v>4907</v>
       </c>
       <c r="F48" t="n">
-        <v>91.76300000000001</v>
+        <v>245.4406</v>
       </c>
       <c r="G48" t="n">
-        <v>4946.683333333333</v>
+        <v>4947.166666666667</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4900</v>
+        <v>4909</v>
       </c>
       <c r="C49" t="n">
-        <v>4850</v>
+        <v>4920</v>
       </c>
       <c r="D49" t="n">
-        <v>4900</v>
+        <v>4920</v>
       </c>
       <c r="E49" t="n">
-        <v>4850</v>
+        <v>4909</v>
       </c>
       <c r="F49" t="n">
-        <v>1204.9252</v>
+        <v>91.76300000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>4945.183333333333</v>
+        <v>4946.683333333333</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4862</v>
+        <v>4900</v>
       </c>
       <c r="C50" t="n">
-        <v>4870</v>
+        <v>4850</v>
       </c>
       <c r="D50" t="n">
-        <v>4890</v>
+        <v>4900</v>
       </c>
       <c r="E50" t="n">
-        <v>4855</v>
+        <v>4850</v>
       </c>
       <c r="F50" t="n">
-        <v>1074.8259</v>
+        <v>1204.9252</v>
       </c>
       <c r="G50" t="n">
-        <v>4943.716666666666</v>
+        <v>4945.183333333333</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4866</v>
+        <v>4862</v>
       </c>
       <c r="C51" t="n">
-        <v>4790</v>
+        <v>4870</v>
       </c>
       <c r="D51" t="n">
-        <v>4866</v>
+        <v>4890</v>
       </c>
       <c r="E51" t="n">
-        <v>4778</v>
+        <v>4855</v>
       </c>
       <c r="F51" t="n">
-        <v>3566.43</v>
+        <v>1074.8259</v>
       </c>
       <c r="G51" t="n">
-        <v>4941.083333333333</v>
+        <v>4943.716666666666</v>
       </c>
       <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4796</v>
+        <v>4866</v>
       </c>
       <c r="C52" t="n">
-        <v>4870</v>
+        <v>4790</v>
       </c>
       <c r="D52" t="n">
-        <v>4870</v>
+        <v>4866</v>
       </c>
       <c r="E52" t="n">
-        <v>4796</v>
+        <v>4778</v>
       </c>
       <c r="F52" t="n">
-        <v>1828.7117</v>
+        <v>3566.43</v>
       </c>
       <c r="G52" t="n">
-        <v>4940</v>
+        <v>4941.083333333333</v>
       </c>
       <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>4796</v>
+      </c>
+      <c r="C53" t="n">
         <v>4870</v>
-      </c>
-      <c r="C53" t="n">
-        <v>4850</v>
       </c>
       <c r="D53" t="n">
         <v>4870</v>
       </c>
       <c r="E53" t="n">
-        <v>4831</v>
+        <v>4796</v>
       </c>
       <c r="F53" t="n">
-        <v>1415.2649</v>
+        <v>1828.7117</v>
       </c>
       <c r="G53" t="n">
-        <v>4938.616666666667</v>
+        <v>4940</v>
       </c>
       <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4849</v>
+        <v>4870</v>
       </c>
       <c r="C54" t="n">
-        <v>4860</v>
+        <v>4850</v>
       </c>
       <c r="D54" t="n">
-        <v>4863</v>
+        <v>4870</v>
       </c>
       <c r="E54" t="n">
-        <v>4840</v>
+        <v>4831</v>
       </c>
       <c r="F54" t="n">
-        <v>660.181</v>
+        <v>1415.2649</v>
       </c>
       <c r="G54" t="n">
-        <v>4937.2</v>
+        <v>4938.616666666667</v>
       </c>
       <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4851</v>
+        <v>4849</v>
       </c>
       <c r="C55" t="n">
-        <v>4861</v>
+        <v>4860</v>
       </c>
       <c r="D55" t="n">
-        <v>4868</v>
+        <v>4863</v>
       </c>
       <c r="E55" t="n">
-        <v>4842</v>
+        <v>4840</v>
       </c>
       <c r="F55" t="n">
-        <v>1331.3703</v>
+        <v>660.181</v>
       </c>
       <c r="G55" t="n">
-        <v>4935.766666666666</v>
+        <v>4937.2</v>
       </c>
       <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4870</v>
+        <v>4851</v>
       </c>
       <c r="C56" t="n">
-        <v>4875</v>
+        <v>4861</v>
       </c>
       <c r="D56" t="n">
-        <v>4880</v>
+        <v>4868</v>
       </c>
       <c r="E56" t="n">
-        <v>4860</v>
+        <v>4842</v>
       </c>
       <c r="F56" t="n">
-        <v>755.8086</v>
+        <v>1331.3703</v>
       </c>
       <c r="G56" t="n">
-        <v>4934.516666666666</v>
+        <v>4935.766666666666</v>
       </c>
       <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4888</v>
+        <v>4870</v>
       </c>
       <c r="C57" t="n">
-        <v>4888</v>
+        <v>4875</v>
       </c>
       <c r="D57" t="n">
-        <v>4888</v>
+        <v>4880</v>
       </c>
       <c r="E57" t="n">
-        <v>4888</v>
+        <v>4860</v>
       </c>
       <c r="F57" t="n">
+        <v>755.8086</v>
+      </c>
+      <c r="G57" t="n">
+        <v>4934.516666666666</v>
+      </c>
+      <c r="H57" t="n">
         <v>1</v>
       </c>
-      <c r="G57" t="n">
-        <v>4933.766666666666</v>
-      </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4889</v>
+        <v>4888</v>
       </c>
       <c r="C58" t="n">
         <v>4888</v>
       </c>
       <c r="D58" t="n">
-        <v>4893</v>
+        <v>4888</v>
       </c>
       <c r="E58" t="n">
-        <v>4880</v>
+        <v>4888</v>
       </c>
       <c r="F58" t="n">
-        <v>284.0098</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>4932.95</v>
+        <v>4933.766666666666</v>
       </c>
       <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4876</v>
+        <v>4889</v>
       </c>
       <c r="C59" t="n">
-        <v>4879</v>
+        <v>4888</v>
       </c>
       <c r="D59" t="n">
-        <v>4879</v>
+        <v>4893</v>
       </c>
       <c r="E59" t="n">
-        <v>4869</v>
+        <v>4880</v>
       </c>
       <c r="F59" t="n">
-        <v>7.8694</v>
+        <v>284.0098</v>
       </c>
       <c r="G59" t="n">
-        <v>4932.033333333334</v>
+        <v>4932.95</v>
       </c>
       <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,7 +2095,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4879</v>
+        <v>4876</v>
       </c>
       <c r="C60" t="n">
         <v>4879</v>
@@ -1925,15 +2104,18 @@
         <v>4879</v>
       </c>
       <c r="E60" t="n">
-        <v>4864</v>
+        <v>4869</v>
       </c>
       <c r="F60" t="n">
-        <v>614.1807</v>
+        <v>7.8694</v>
       </c>
       <c r="G60" t="n">
-        <v>4931.133333333333</v>
+        <v>4932.033333333334</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4875</v>
+        <v>4879</v>
       </c>
       <c r="C61" t="n">
-        <v>4892</v>
+        <v>4879</v>
       </c>
       <c r="D61" t="n">
-        <v>4892</v>
+        <v>4879</v>
       </c>
       <c r="E61" t="n">
-        <v>4875</v>
+        <v>4864</v>
       </c>
       <c r="F61" t="n">
-        <v>585.3929000000001</v>
+        <v>614.1807</v>
       </c>
       <c r="G61" t="n">
-        <v>4930.45</v>
+        <v>4931.133333333333</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4883</v>
+        <v>4875</v>
       </c>
       <c r="C62" t="n">
-        <v>4882</v>
+        <v>4892</v>
       </c>
       <c r="D62" t="n">
-        <v>4890</v>
+        <v>4892</v>
       </c>
       <c r="E62" t="n">
-        <v>4880</v>
+        <v>4875</v>
       </c>
       <c r="F62" t="n">
-        <v>538.905</v>
+        <v>585.3929000000001</v>
       </c>
       <c r="G62" t="n">
-        <v>4929.45</v>
+        <v>4930.45</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4886</v>
+        <v>4883</v>
       </c>
       <c r="C63" t="n">
-        <v>4896</v>
+        <v>4882</v>
       </c>
       <c r="D63" t="n">
-        <v>4896</v>
+        <v>4890</v>
       </c>
       <c r="E63" t="n">
-        <v>4886</v>
+        <v>4880</v>
       </c>
       <c r="F63" t="n">
-        <v>204.1116</v>
+        <v>538.905</v>
       </c>
       <c r="G63" t="n">
-        <v>4928.433333333333</v>
+        <v>4929.45</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4895</v>
+        <v>4886</v>
       </c>
       <c r="C64" t="n">
-        <v>4895</v>
+        <v>4896</v>
       </c>
       <c r="D64" t="n">
-        <v>4895</v>
+        <v>4896</v>
       </c>
       <c r="E64" t="n">
-        <v>4895</v>
+        <v>4886</v>
       </c>
       <c r="F64" t="n">
-        <v>93.6614</v>
+        <v>204.1116</v>
       </c>
       <c r="G64" t="n">
-        <v>4927.5</v>
+        <v>4928.433333333333</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2049,21 +2243,24 @@
         <v>4895</v>
       </c>
       <c r="C65" t="n">
-        <v>4891</v>
+        <v>4895</v>
       </c>
       <c r="D65" t="n">
         <v>4895</v>
       </c>
       <c r="E65" t="n">
-        <v>4891</v>
+        <v>4895</v>
       </c>
       <c r="F65" t="n">
-        <v>129.2823</v>
+        <v>93.6614</v>
       </c>
       <c r="G65" t="n">
-        <v>4926.616666666667</v>
+        <v>4927.5</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4890</v>
+        <v>4895</v>
       </c>
       <c r="C66" t="n">
-        <v>4889</v>
+        <v>4891</v>
       </c>
       <c r="D66" t="n">
-        <v>4890</v>
+        <v>4895</v>
       </c>
       <c r="E66" t="n">
-        <v>4889</v>
+        <v>4891</v>
       </c>
       <c r="F66" t="n">
-        <v>222.4078</v>
+        <v>129.2823</v>
       </c>
       <c r="G66" t="n">
-        <v>4925.683333333333</v>
+        <v>4926.616666666667</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4900</v>
+        <v>4890</v>
       </c>
       <c r="C67" t="n">
-        <v>4920</v>
+        <v>4889</v>
       </c>
       <c r="D67" t="n">
-        <v>4921</v>
+        <v>4890</v>
       </c>
       <c r="E67" t="n">
-        <v>4900</v>
+        <v>4889</v>
       </c>
       <c r="F67" t="n">
-        <v>530.365</v>
+        <v>222.4078</v>
       </c>
       <c r="G67" t="n">
-        <v>4925.333333333333</v>
+        <v>4925.683333333333</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4919</v>
+        <v>4900</v>
       </c>
       <c r="C68" t="n">
-        <v>4919</v>
+        <v>4920</v>
       </c>
       <c r="D68" t="n">
-        <v>4919</v>
+        <v>4921</v>
       </c>
       <c r="E68" t="n">
-        <v>4919</v>
+        <v>4900</v>
       </c>
       <c r="F68" t="n">
-        <v>1.5541</v>
+        <v>530.365</v>
       </c>
       <c r="G68" t="n">
-        <v>4924.55</v>
+        <v>4925.333333333333</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,12 +2368,15 @@
         <v>4919</v>
       </c>
       <c r="F69" t="n">
-        <v>5.5172</v>
+        <v>1.5541</v>
       </c>
       <c r="G69" t="n">
-        <v>4923.866666666667</v>
+        <v>4924.55</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4920</v>
+        <v>4919</v>
       </c>
       <c r="C70" t="n">
-        <v>4925</v>
+        <v>4919</v>
       </c>
       <c r="D70" t="n">
-        <v>4925</v>
+        <v>4919</v>
       </c>
       <c r="E70" t="n">
-        <v>4920</v>
+        <v>4919</v>
       </c>
       <c r="F70" t="n">
-        <v>14.2377</v>
+        <v>5.5172</v>
       </c>
       <c r="G70" t="n">
-        <v>4923.333333333333</v>
+        <v>4923.866666666667</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>4920</v>
+      </c>
+      <c r="C71" t="n">
         <v>4925</v>
       </c>
-      <c r="C71" t="n">
-        <v>4939</v>
-      </c>
       <c r="D71" t="n">
-        <v>4939</v>
+        <v>4925</v>
       </c>
       <c r="E71" t="n">
-        <v>4925</v>
+        <v>4920</v>
       </c>
       <c r="F71" t="n">
-        <v>255.3081</v>
+        <v>14.2377</v>
       </c>
       <c r="G71" t="n">
-        <v>4923.05</v>
+        <v>4923.333333333333</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4942</v>
+        <v>4925</v>
       </c>
       <c r="C72" t="n">
-        <v>4942</v>
+        <v>4939</v>
       </c>
       <c r="D72" t="n">
-        <v>4942</v>
+        <v>4939</v>
       </c>
       <c r="E72" t="n">
-        <v>4942</v>
+        <v>4925</v>
       </c>
       <c r="F72" t="n">
-        <v>91.15730000000001</v>
+        <v>255.3081</v>
       </c>
       <c r="G72" t="n">
-        <v>4922.716666666666</v>
+        <v>4923.05</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,7 +2472,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4935</v>
+        <v>4942</v>
       </c>
       <c r="C73" t="n">
         <v>4942</v>
@@ -2263,15 +2481,18 @@
         <v>4942</v>
       </c>
       <c r="E73" t="n">
-        <v>4935</v>
+        <v>4942</v>
       </c>
       <c r="F73" t="n">
-        <v>260.53</v>
+        <v>91.15730000000001</v>
       </c>
       <c r="G73" t="n">
-        <v>4922.533333333334</v>
+        <v>4922.716666666666</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,7 +2501,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4937</v>
+        <v>4935</v>
       </c>
       <c r="C74" t="n">
         <v>4942</v>
@@ -2289,15 +2510,18 @@
         <v>4942</v>
       </c>
       <c r="E74" t="n">
-        <v>4934</v>
+        <v>4935</v>
       </c>
       <c r="F74" t="n">
-        <v>121.0646</v>
+        <v>260.53</v>
       </c>
       <c r="G74" t="n">
-        <v>4922.15</v>
+        <v>4922.533333333334</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>4937</v>
+      </c>
+      <c r="C75" t="n">
         <v>4942</v>
       </c>
-      <c r="C75" t="n">
-        <v>4964</v>
-      </c>
       <c r="D75" t="n">
-        <v>4975</v>
+        <v>4942</v>
       </c>
       <c r="E75" t="n">
-        <v>4942</v>
+        <v>4934</v>
       </c>
       <c r="F75" t="n">
-        <v>1813.7886</v>
+        <v>121.0646</v>
       </c>
       <c r="G75" t="n">
-        <v>4922.133333333333</v>
+        <v>4922.15</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4954</v>
+        <v>4942</v>
       </c>
       <c r="C76" t="n">
-        <v>4947</v>
+        <v>4964</v>
       </c>
       <c r="D76" t="n">
-        <v>4954</v>
+        <v>4975</v>
       </c>
       <c r="E76" t="n">
-        <v>4947</v>
+        <v>4942</v>
       </c>
       <c r="F76" t="n">
-        <v>234.4722</v>
+        <v>1813.7886</v>
       </c>
       <c r="G76" t="n">
-        <v>4921.833333333333</v>
+        <v>4922.133333333333</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>4954</v>
+      </c>
+      <c r="C77" t="n">
         <v>4947</v>
       </c>
-      <c r="C77" t="n">
-        <v>4955</v>
-      </c>
       <c r="D77" t="n">
-        <v>4955</v>
+        <v>4954</v>
       </c>
       <c r="E77" t="n">
         <v>4947</v>
       </c>
       <c r="F77" t="n">
-        <v>300.7263</v>
+        <v>234.4722</v>
       </c>
       <c r="G77" t="n">
-        <v>4921.5</v>
+        <v>4921.833333333333</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4950</v>
+        <v>4947</v>
       </c>
       <c r="C78" t="n">
-        <v>4950</v>
+        <v>4955</v>
       </c>
       <c r="D78" t="n">
-        <v>4950</v>
+        <v>4955</v>
       </c>
       <c r="E78" t="n">
-        <v>4938</v>
+        <v>4947</v>
       </c>
       <c r="F78" t="n">
-        <v>385.7231</v>
+        <v>300.7263</v>
       </c>
       <c r="G78" t="n">
-        <v>4921.333333333333</v>
+        <v>4921.5</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4943</v>
+        <v>4950</v>
       </c>
       <c r="C79" t="n">
-        <v>4945</v>
+        <v>4950</v>
       </c>
       <c r="D79" t="n">
-        <v>4954</v>
+        <v>4950</v>
       </c>
       <c r="E79" t="n">
-        <v>4943</v>
+        <v>4938</v>
       </c>
       <c r="F79" t="n">
-        <v>226.5514</v>
+        <v>385.7231</v>
       </c>
       <c r="G79" t="n">
-        <v>4921.083333333333</v>
+        <v>4921.333333333333</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4953</v>
+        <v>4943</v>
       </c>
       <c r="C80" t="n">
-        <v>4954</v>
+        <v>4945</v>
       </c>
       <c r="D80" t="n">
         <v>4954</v>
       </c>
       <c r="E80" t="n">
-        <v>4953</v>
+        <v>4943</v>
       </c>
       <c r="F80" t="n">
-        <v>184.2918</v>
+        <v>226.5514</v>
       </c>
       <c r="G80" t="n">
-        <v>4920.883333333333</v>
+        <v>4921.083333333333</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2465,21 +2707,24 @@
         <v>4953</v>
       </c>
       <c r="C81" t="n">
-        <v>4940</v>
+        <v>4954</v>
       </c>
       <c r="D81" t="n">
+        <v>4954</v>
+      </c>
+      <c r="E81" t="n">
         <v>4953</v>
       </c>
-      <c r="E81" t="n">
-        <v>4940</v>
-      </c>
       <c r="F81" t="n">
-        <v>424.967</v>
+        <v>184.2918</v>
       </c>
       <c r="G81" t="n">
-        <v>4920.35</v>
+        <v>4920.883333333333</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4950</v>
+        <v>4953</v>
       </c>
       <c r="C82" t="n">
-        <v>4951</v>
+        <v>4940</v>
       </c>
       <c r="D82" t="n">
-        <v>4951</v>
+        <v>4953</v>
       </c>
       <c r="E82" t="n">
-        <v>4950</v>
+        <v>4940</v>
       </c>
       <c r="F82" t="n">
-        <v>72.64700000000001</v>
+        <v>424.967</v>
       </c>
       <c r="G82" t="n">
-        <v>4919.85</v>
+        <v>4920.35</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4957</v>
+        <v>4950</v>
       </c>
       <c r="C83" t="n">
-        <v>4958</v>
+        <v>4951</v>
       </c>
       <c r="D83" t="n">
-        <v>4958</v>
+        <v>4951</v>
       </c>
       <c r="E83" t="n">
-        <v>4957</v>
+        <v>4950</v>
       </c>
       <c r="F83" t="n">
-        <v>98.8</v>
+        <v>72.64700000000001</v>
       </c>
       <c r="G83" t="n">
-        <v>4919.666666666667</v>
+        <v>4919.85</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4952</v>
+        <v>4957</v>
       </c>
       <c r="C84" t="n">
-        <v>4951</v>
+        <v>4958</v>
       </c>
       <c r="D84" t="n">
-        <v>4952</v>
+        <v>4958</v>
       </c>
       <c r="E84" t="n">
-        <v>4951</v>
+        <v>4957</v>
       </c>
       <c r="F84" t="n">
-        <v>95.855</v>
+        <v>98.8</v>
       </c>
       <c r="G84" t="n">
-        <v>4919.416666666667</v>
+        <v>4919.666666666667</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4953</v>
+        <v>4952</v>
       </c>
       <c r="C85" t="n">
-        <v>4959</v>
+        <v>4951</v>
       </c>
       <c r="D85" t="n">
-        <v>4959</v>
+        <v>4952</v>
       </c>
       <c r="E85" t="n">
-        <v>4953</v>
+        <v>4951</v>
       </c>
       <c r="F85" t="n">
-        <v>99.7</v>
+        <v>95.855</v>
       </c>
       <c r="G85" t="n">
-        <v>4919.216666666666</v>
+        <v>4919.416666666667</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4956</v>
+        <v>4953</v>
       </c>
       <c r="C86" t="n">
-        <v>4956</v>
+        <v>4959</v>
       </c>
       <c r="D86" t="n">
-        <v>4956</v>
+        <v>4959</v>
       </c>
       <c r="E86" t="n">
-        <v>4956</v>
+        <v>4953</v>
       </c>
       <c r="F86" t="n">
-        <v>0.8557</v>
+        <v>99.7</v>
       </c>
       <c r="G86" t="n">
-        <v>4918.966666666666</v>
+        <v>4919.216666666666</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4964</v>
+        <v>4956</v>
       </c>
       <c r="C87" t="n">
-        <v>4964</v>
+        <v>4956</v>
       </c>
       <c r="D87" t="n">
-        <v>4964</v>
+        <v>4956</v>
       </c>
       <c r="E87" t="n">
-        <v>4964</v>
+        <v>4956</v>
       </c>
       <c r="F87" t="n">
-        <v>4.02</v>
+        <v>0.8557</v>
       </c>
       <c r="G87" t="n">
-        <v>4918.866666666667</v>
+        <v>4918.966666666666</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4962</v>
+        <v>4964</v>
       </c>
       <c r="C88" t="n">
-        <v>4966</v>
+        <v>4964</v>
       </c>
       <c r="D88" t="n">
-        <v>4966</v>
+        <v>4964</v>
       </c>
       <c r="E88" t="n">
-        <v>4962</v>
+        <v>4964</v>
       </c>
       <c r="F88" t="n">
-        <v>264.4822221103504</v>
+        <v>4.02</v>
       </c>
       <c r="G88" t="n">
-        <v>4918.933333333333</v>
+        <v>4918.866666666667</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2673,21 +2939,24 @@
         <v>4962</v>
       </c>
       <c r="C89" t="n">
-        <v>4950</v>
+        <v>4966</v>
       </c>
       <c r="D89" t="n">
+        <v>4966</v>
+      </c>
+      <c r="E89" t="n">
         <v>4962</v>
       </c>
-      <c r="E89" t="n">
-        <v>4950</v>
-      </c>
       <c r="F89" t="n">
-        <v>111.9008</v>
+        <v>264.4822221103504</v>
       </c>
       <c r="G89" t="n">
         <v>4918.933333333333</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4961</v>
+        <v>4962</v>
       </c>
       <c r="C90" t="n">
-        <v>4961</v>
+        <v>4950</v>
       </c>
       <c r="D90" t="n">
-        <v>4961</v>
+        <v>4962</v>
       </c>
       <c r="E90" t="n">
-        <v>4961</v>
+        <v>4950</v>
       </c>
       <c r="F90" t="n">
-        <v>1.6379</v>
+        <v>111.9008</v>
       </c>
       <c r="G90" t="n">
-        <v>4919.3</v>
+        <v>4918.933333333333</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4965</v>
+        <v>4961</v>
       </c>
       <c r="C91" t="n">
-        <v>4965</v>
+        <v>4961</v>
       </c>
       <c r="D91" t="n">
-        <v>4965</v>
+        <v>4961</v>
       </c>
       <c r="E91" t="n">
-        <v>4965</v>
+        <v>4961</v>
       </c>
       <c r="F91" t="n">
-        <v>1.6008</v>
+        <v>1.6379</v>
       </c>
       <c r="G91" t="n">
-        <v>4919.833333333333</v>
+        <v>4919.3</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4961</v>
+        <v>4965</v>
       </c>
       <c r="C92" t="n">
-        <v>4957</v>
+        <v>4965</v>
       </c>
       <c r="D92" t="n">
-        <v>4961</v>
+        <v>4965</v>
       </c>
       <c r="E92" t="n">
-        <v>4957</v>
+        <v>4965</v>
       </c>
       <c r="F92" t="n">
-        <v>110.5866</v>
+        <v>1.6008</v>
       </c>
       <c r="G92" t="n">
-        <v>4920.133333333333</v>
+        <v>4919.833333333333</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4950</v>
+        <v>4961</v>
       </c>
       <c r="C93" t="n">
-        <v>4948</v>
+        <v>4957</v>
       </c>
       <c r="D93" t="n">
-        <v>4950</v>
+        <v>4961</v>
       </c>
       <c r="E93" t="n">
-        <v>4947</v>
+        <v>4957</v>
       </c>
       <c r="F93" t="n">
-        <v>605.1840999999999</v>
+        <v>110.5866</v>
       </c>
       <c r="G93" t="n">
-        <v>4920.433333333333</v>
+        <v>4920.133333333333</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4949</v>
+        <v>4950</v>
       </c>
       <c r="C94" t="n">
-        <v>4949</v>
+        <v>4948</v>
       </c>
       <c r="D94" t="n">
-        <v>4949</v>
+        <v>4950</v>
       </c>
       <c r="E94" t="n">
-        <v>4949</v>
+        <v>4947</v>
       </c>
       <c r="F94" t="n">
-        <v>4.2434</v>
+        <v>605.1840999999999</v>
       </c>
       <c r="G94" t="n">
-        <v>4920.833333333333</v>
+        <v>4920.433333333333</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4942</v>
+        <v>4949</v>
       </c>
       <c r="C95" t="n">
-        <v>4940</v>
+        <v>4949</v>
       </c>
       <c r="D95" t="n">
-        <v>4942</v>
+        <v>4949</v>
       </c>
       <c r="E95" t="n">
-        <v>4940</v>
+        <v>4949</v>
       </c>
       <c r="F95" t="n">
-        <v>149.625</v>
+        <v>4.2434</v>
       </c>
       <c r="G95" t="n">
-        <v>4920.8</v>
+        <v>4920.833333333333</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4955</v>
+        <v>4942</v>
       </c>
       <c r="C96" t="n">
-        <v>4955</v>
+        <v>4940</v>
       </c>
       <c r="D96" t="n">
-        <v>4955</v>
+        <v>4942</v>
       </c>
       <c r="E96" t="n">
-        <v>4955</v>
+        <v>4940</v>
       </c>
       <c r="F96" t="n">
-        <v>2.5667</v>
+        <v>149.625</v>
       </c>
       <c r="G96" t="n">
-        <v>4921.016666666666</v>
+        <v>4920.8</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2890,12 +3180,15 @@
         <v>4955</v>
       </c>
       <c r="F97" t="n">
-        <v>80.524</v>
+        <v>2.5667</v>
       </c>
       <c r="G97" t="n">
-        <v>4921.216666666666</v>
+        <v>4921.016666666666</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4957</v>
+        <v>4955</v>
       </c>
       <c r="C98" t="n">
-        <v>4958</v>
+        <v>4955</v>
       </c>
       <c r="D98" t="n">
-        <v>4958</v>
+        <v>4955</v>
       </c>
       <c r="E98" t="n">
-        <v>4957</v>
+        <v>4955</v>
       </c>
       <c r="F98" t="n">
-        <v>9.5419</v>
+        <v>80.524</v>
       </c>
       <c r="G98" t="n">
-        <v>4921.6</v>
+        <v>4921.216666666666</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4965</v>
+        <v>4957</v>
       </c>
       <c r="C99" t="n">
-        <v>4965</v>
+        <v>4958</v>
       </c>
       <c r="D99" t="n">
-        <v>4965</v>
+        <v>4958</v>
       </c>
       <c r="E99" t="n">
-        <v>4965</v>
+        <v>4957</v>
       </c>
       <c r="F99" t="n">
-        <v>99.40000000000001</v>
+        <v>9.5419</v>
       </c>
       <c r="G99" t="n">
-        <v>4922.2</v>
+        <v>4921.6</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4956</v>
+        <v>4965</v>
       </c>
       <c r="C100" t="n">
-        <v>4955</v>
+        <v>4965</v>
       </c>
       <c r="D100" t="n">
-        <v>4956</v>
+        <v>4965</v>
       </c>
       <c r="E100" t="n">
-        <v>4955</v>
+        <v>4965</v>
       </c>
       <c r="F100" t="n">
-        <v>99.75</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G100" t="n">
-        <v>4922.7</v>
+        <v>4922.2</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4969</v>
+        <v>4956</v>
       </c>
       <c r="C101" t="n">
-        <v>4969</v>
+        <v>4955</v>
       </c>
       <c r="D101" t="n">
-        <v>4969</v>
+        <v>4956</v>
       </c>
       <c r="E101" t="n">
-        <v>4969</v>
+        <v>4955</v>
       </c>
       <c r="F101" t="n">
-        <v>2.2405</v>
+        <v>99.75</v>
       </c>
       <c r="G101" t="n">
-        <v>4923.433333333333</v>
+        <v>4922.7</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3020,12 +3325,15 @@
         <v>4969</v>
       </c>
       <c r="F102" t="n">
-        <v>100</v>
+        <v>2.2405</v>
       </c>
       <c r="G102" t="n">
-        <v>4924.033333333334</v>
+        <v>4923.433333333333</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4980</v>
+        <v>4969</v>
       </c>
       <c r="C103" t="n">
-        <v>4981</v>
+        <v>4969</v>
       </c>
       <c r="D103" t="n">
-        <v>4981</v>
+        <v>4969</v>
       </c>
       <c r="E103" t="n">
-        <v>4980</v>
+        <v>4969</v>
       </c>
       <c r="F103" t="n">
-        <v>21.3432</v>
+        <v>100</v>
       </c>
       <c r="G103" t="n">
-        <v>4924.883333333333</v>
+        <v>4924.033333333334</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4988</v>
+        <v>4980</v>
       </c>
       <c r="C104" t="n">
-        <v>4988</v>
+        <v>4981</v>
       </c>
       <c r="D104" t="n">
-        <v>4988</v>
+        <v>4981</v>
       </c>
       <c r="E104" t="n">
-        <v>4988</v>
+        <v>4980</v>
       </c>
       <c r="F104" t="n">
-        <v>29.0169</v>
+        <v>21.3432</v>
       </c>
       <c r="G104" t="n">
-        <v>4925.85</v>
+        <v>4924.883333333333</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4985</v>
+        <v>4988</v>
       </c>
       <c r="C105" t="n">
-        <v>4983</v>
+        <v>4988</v>
       </c>
       <c r="D105" t="n">
-        <v>4985</v>
+        <v>4988</v>
       </c>
       <c r="E105" t="n">
-        <v>4983</v>
+        <v>4988</v>
       </c>
       <c r="F105" t="n">
-        <v>101.8</v>
+        <v>29.0169</v>
       </c>
       <c r="G105" t="n">
-        <v>4927.066666666667</v>
+        <v>4925.85</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3115,21 +3432,24 @@
         <v>4985</v>
       </c>
       <c r="C106" t="n">
-        <v>4990</v>
+        <v>4983</v>
       </c>
       <c r="D106" t="n">
-        <v>4990</v>
+        <v>4985</v>
       </c>
       <c r="E106" t="n">
-        <v>4985</v>
+        <v>4983</v>
       </c>
       <c r="F106" t="n">
-        <v>103.3</v>
+        <v>101.8</v>
       </c>
       <c r="G106" t="n">
-        <v>4928.15</v>
+        <v>4927.066666666667</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4998</v>
+        <v>4985</v>
       </c>
       <c r="C107" t="n">
-        <v>4998</v>
+        <v>4990</v>
       </c>
       <c r="D107" t="n">
-        <v>4998</v>
+        <v>4990</v>
       </c>
       <c r="E107" t="n">
-        <v>4998</v>
+        <v>4985</v>
       </c>
       <c r="F107" t="n">
-        <v>11.3073</v>
+        <v>103.3</v>
       </c>
       <c r="G107" t="n">
-        <v>4929.483333333334</v>
+        <v>4928.15</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4987</v>
+        <v>4998</v>
       </c>
       <c r="C108" t="n">
-        <v>4987</v>
+        <v>4998</v>
       </c>
       <c r="D108" t="n">
-        <v>4987</v>
+        <v>4998</v>
       </c>
       <c r="E108" t="n">
-        <v>4987</v>
+        <v>4998</v>
       </c>
       <c r="F108" t="n">
-        <v>16</v>
+        <v>11.3073</v>
       </c>
       <c r="G108" t="n">
-        <v>4930.6</v>
+        <v>4929.483333333334</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>5000</v>
+        <v>4987</v>
       </c>
       <c r="C109" t="n">
-        <v>5010</v>
+        <v>4987</v>
       </c>
       <c r="D109" t="n">
-        <v>5010</v>
+        <v>4987</v>
       </c>
       <c r="E109" t="n">
-        <v>5000</v>
+        <v>4987</v>
       </c>
       <c r="F109" t="n">
-        <v>1671.8365</v>
+        <v>16</v>
       </c>
       <c r="G109" t="n">
-        <v>4933.266666666666</v>
+        <v>4930.6</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3228,12 +3557,15 @@
         <v>5000</v>
       </c>
       <c r="F110" t="n">
-        <v>359.9801</v>
+        <v>1671.8365</v>
       </c>
       <c r="G110" t="n">
-        <v>4935.6</v>
+        <v>4933.266666666666</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,7 +3574,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>5010</v>
+        <v>5000</v>
       </c>
       <c r="C111" t="n">
         <v>5010</v>
@@ -3251,15 +3583,18 @@
         <v>5010</v>
       </c>
       <c r="E111" t="n">
-        <v>5010</v>
+        <v>5000</v>
       </c>
       <c r="F111" t="n">
-        <v>176.4503</v>
+        <v>359.9801</v>
       </c>
       <c r="G111" t="n">
-        <v>4939.266666666666</v>
+        <v>4935.6</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>5000</v>
+        <v>5010</v>
       </c>
       <c r="C112" t="n">
-        <v>5030</v>
+        <v>5010</v>
       </c>
       <c r="D112" t="n">
-        <v>5030</v>
+        <v>5010</v>
       </c>
       <c r="E112" t="n">
-        <v>5000</v>
+        <v>5010</v>
       </c>
       <c r="F112" t="n">
-        <v>225.603</v>
+        <v>176.4503</v>
       </c>
       <c r="G112" t="n">
-        <v>4941.933333333333</v>
+        <v>4939.266666666666</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5010</v>
+        <v>5000</v>
       </c>
       <c r="C113" t="n">
-        <v>5010</v>
+        <v>5030</v>
       </c>
       <c r="D113" t="n">
-        <v>5010</v>
+        <v>5030</v>
       </c>
       <c r="E113" t="n">
-        <v>5010</v>
+        <v>5000</v>
       </c>
       <c r="F113" t="n">
-        <v>12</v>
+        <v>225.603</v>
       </c>
       <c r="G113" t="n">
-        <v>4944.6</v>
+        <v>4941.933333333333</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4993</v>
+        <v>5010</v>
       </c>
       <c r="C114" t="n">
-        <v>4992</v>
+        <v>5010</v>
       </c>
       <c r="D114" t="n">
-        <v>4993</v>
+        <v>5010</v>
       </c>
       <c r="E114" t="n">
-        <v>4992</v>
+        <v>5010</v>
       </c>
       <c r="F114" t="n">
-        <v>7.2132</v>
+        <v>12</v>
       </c>
       <c r="G114" t="n">
-        <v>4946.8</v>
+        <v>4944.6</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>5000</v>
+        <v>4993</v>
       </c>
       <c r="C115" t="n">
-        <v>5005</v>
+        <v>4992</v>
       </c>
       <c r="D115" t="n">
-        <v>5005</v>
+        <v>4993</v>
       </c>
       <c r="E115" t="n">
-        <v>5000</v>
+        <v>4992</v>
       </c>
       <c r="F115" t="n">
-        <v>201.6448</v>
+        <v>7.2132</v>
       </c>
       <c r="G115" t="n">
-        <v>4949.2</v>
+        <v>4946.8</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>5010</v>
+        <v>5000</v>
       </c>
       <c r="C116" t="n">
-        <v>5010</v>
+        <v>5005</v>
       </c>
       <c r="D116" t="n">
-        <v>5010</v>
+        <v>5005</v>
       </c>
       <c r="E116" t="n">
-        <v>5010</v>
+        <v>5000</v>
       </c>
       <c r="F116" t="n">
-        <v>1.6448</v>
+        <v>201.6448</v>
       </c>
       <c r="G116" t="n">
-        <v>4951.45</v>
+        <v>4949.2</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3410,12 +3760,15 @@
         <v>5010</v>
       </c>
       <c r="F117" t="n">
-        <v>0.7893</v>
+        <v>1.6448</v>
       </c>
       <c r="G117" t="n">
-        <v>4953.483333333334</v>
+        <v>4951.45</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3436,12 +3789,15 @@
         <v>5010</v>
       </c>
       <c r="F118" t="n">
-        <v>25</v>
+        <v>0.7893</v>
       </c>
       <c r="G118" t="n">
-        <v>4955.516666666666</v>
+        <v>4953.483333333334</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5000</v>
+        <v>5010</v>
       </c>
       <c r="C119" t="n">
-        <v>5000</v>
+        <v>5010</v>
       </c>
       <c r="D119" t="n">
-        <v>5000</v>
+        <v>5010</v>
       </c>
       <c r="E119" t="n">
-        <v>5000</v>
+        <v>5010</v>
       </c>
       <c r="F119" t="n">
-        <v>498.2147</v>
+        <v>25</v>
       </c>
       <c r="G119" t="n">
-        <v>4957.533333333334</v>
+        <v>4955.516666666666</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>5015</v>
+        <v>5000</v>
       </c>
       <c r="C120" t="n">
-        <v>5010</v>
+        <v>5000</v>
       </c>
       <c r="D120" t="n">
-        <v>5015</v>
+        <v>5000</v>
       </c>
       <c r="E120" t="n">
-        <v>5010</v>
+        <v>5000</v>
       </c>
       <c r="F120" t="n">
-        <v>48.444</v>
+        <v>498.2147</v>
       </c>
       <c r="G120" t="n">
-        <v>4959.716666666666</v>
+        <v>4957.533333333334</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3505,21 +3867,24 @@
         <v>5015</v>
       </c>
       <c r="C121" t="n">
-        <v>5015</v>
+        <v>5010</v>
       </c>
       <c r="D121" t="n">
         <v>5015</v>
       </c>
       <c r="E121" t="n">
-        <v>5015</v>
+        <v>5010</v>
       </c>
       <c r="F121" t="n">
-        <v>65.75360000000001</v>
+        <v>48.444</v>
       </c>
       <c r="G121" t="n">
-        <v>4961.766666666666</v>
+        <v>4959.716666666666</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5030</v>
+        <v>5015</v>
       </c>
       <c r="C122" t="n">
-        <v>5030</v>
+        <v>5015</v>
       </c>
       <c r="D122" t="n">
-        <v>5030</v>
+        <v>5015</v>
       </c>
       <c r="E122" t="n">
-        <v>5030</v>
+        <v>5015</v>
       </c>
       <c r="F122" t="n">
-        <v>100</v>
+        <v>65.75360000000001</v>
       </c>
       <c r="G122" t="n">
-        <v>4964.233333333334</v>
+        <v>4961.766666666666</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3566,12 +3934,15 @@
         <v>5030</v>
       </c>
       <c r="F123" t="n">
-        <v>10.9</v>
+        <v>100</v>
       </c>
       <c r="G123" t="n">
-        <v>4966.466666666666</v>
+        <v>4964.233333333334</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3583,21 +3954,24 @@
         <v>5030</v>
       </c>
       <c r="C124" t="n">
-        <v>5035</v>
+        <v>5030</v>
       </c>
       <c r="D124" t="n">
-        <v>5035</v>
+        <v>5030</v>
       </c>
       <c r="E124" t="n">
         <v>5030</v>
       </c>
       <c r="F124" t="n">
-        <v>109.272</v>
+        <v>10.9</v>
       </c>
       <c r="G124" t="n">
-        <v>4968.8</v>
+        <v>4966.466666666666</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5010</v>
+        <v>5030</v>
       </c>
       <c r="C125" t="n">
-        <v>5010</v>
+        <v>5035</v>
       </c>
       <c r="D125" t="n">
-        <v>5010</v>
+        <v>5035</v>
       </c>
       <c r="E125" t="n">
-        <v>5010</v>
+        <v>5030</v>
       </c>
       <c r="F125" t="n">
-        <v>20.2413</v>
+        <v>109.272</v>
       </c>
       <c r="G125" t="n">
-        <v>4970.783333333334</v>
+        <v>4968.8</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5005</v>
+        <v>5010</v>
       </c>
       <c r="C126" t="n">
-        <v>5005</v>
+        <v>5010</v>
       </c>
       <c r="D126" t="n">
-        <v>5005</v>
+        <v>5010</v>
       </c>
       <c r="E126" t="n">
-        <v>5005</v>
+        <v>5010</v>
       </c>
       <c r="F126" t="n">
-        <v>99.75</v>
+        <v>20.2413</v>
       </c>
       <c r="G126" t="n">
-        <v>4972.716666666666</v>
+        <v>4970.783333333334</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5010</v>
+        <v>5005</v>
       </c>
       <c r="C127" t="n">
-        <v>5010</v>
+        <v>5005</v>
       </c>
       <c r="D127" t="n">
-        <v>5010</v>
+        <v>5005</v>
       </c>
       <c r="E127" t="n">
-        <v>5010</v>
+        <v>5005</v>
       </c>
       <c r="F127" t="n">
-        <v>20.4665</v>
+        <v>99.75</v>
       </c>
       <c r="G127" t="n">
-        <v>4974.216666666666</v>
+        <v>4972.716666666666</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5015</v>
+        <v>5010</v>
       </c>
       <c r="C128" t="n">
-        <v>5015</v>
+        <v>5010</v>
       </c>
       <c r="D128" t="n">
-        <v>5015</v>
+        <v>5010</v>
       </c>
       <c r="E128" t="n">
-        <v>5015</v>
+        <v>5010</v>
       </c>
       <c r="F128" t="n">
-        <v>7.6832</v>
+        <v>20.4665</v>
       </c>
       <c r="G128" t="n">
-        <v>4975.816666666667</v>
+        <v>4974.216666666666</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5020</v>
+        <v>5015</v>
       </c>
       <c r="C129" t="n">
-        <v>5020</v>
+        <v>5015</v>
       </c>
       <c r="D129" t="n">
-        <v>5020</v>
+        <v>5015</v>
       </c>
       <c r="E129" t="n">
-        <v>5020</v>
+        <v>5015</v>
       </c>
       <c r="F129" t="n">
-        <v>7.299</v>
+        <v>7.6832</v>
       </c>
       <c r="G129" t="n">
-        <v>4977.5</v>
+        <v>4975.816666666667</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5025</v>
+        <v>5020</v>
       </c>
       <c r="C130" t="n">
-        <v>5025</v>
+        <v>5020</v>
       </c>
       <c r="D130" t="n">
-        <v>5025</v>
+        <v>5020</v>
       </c>
       <c r="E130" t="n">
-        <v>5025</v>
+        <v>5020</v>
       </c>
       <c r="F130" t="n">
-        <v>300.2991</v>
+        <v>7.299</v>
       </c>
       <c r="G130" t="n">
-        <v>4979.166666666667</v>
+        <v>4977.5</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5020</v>
+        <v>5025</v>
       </c>
       <c r="C131" t="n">
-        <v>5030</v>
+        <v>5025</v>
       </c>
       <c r="D131" t="n">
-        <v>5030</v>
+        <v>5025</v>
       </c>
       <c r="E131" t="n">
-        <v>5020</v>
+        <v>5025</v>
       </c>
       <c r="F131" t="n">
-        <v>54.2081</v>
+        <v>300.2991</v>
       </c>
       <c r="G131" t="n">
-        <v>4980.683333333333</v>
+        <v>4979.166666666667</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3791,21 +4186,24 @@
         <v>5020</v>
       </c>
       <c r="C132" t="n">
-        <v>5020</v>
+        <v>5030</v>
       </c>
       <c r="D132" t="n">
-        <v>5020</v>
+        <v>5030</v>
       </c>
       <c r="E132" t="n">
         <v>5020</v>
       </c>
       <c r="F132" t="n">
-        <v>91.08</v>
+        <v>54.2081</v>
       </c>
       <c r="G132" t="n">
-        <v>4981.983333333334</v>
+        <v>4980.683333333333</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3826,12 +4224,15 @@
         <v>5020</v>
       </c>
       <c r="F133" t="n">
-        <v>37.4636</v>
+        <v>91.08</v>
       </c>
       <c r="G133" t="n">
-        <v>4983.283333333334</v>
+        <v>4981.983333333334</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5000</v>
+        <v>5020</v>
       </c>
       <c r="C134" t="n">
-        <v>4996</v>
+        <v>5020</v>
       </c>
       <c r="D134" t="n">
-        <v>5000</v>
+        <v>5020</v>
       </c>
       <c r="E134" t="n">
-        <v>4996</v>
+        <v>5020</v>
       </c>
       <c r="F134" t="n">
-        <v>4.2028</v>
+        <v>37.4636</v>
       </c>
       <c r="G134" t="n">
-        <v>4984.183333333333</v>
+        <v>4983.283333333334</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4991</v>
+        <v>5000</v>
       </c>
       <c r="C135" t="n">
-        <v>4989</v>
+        <v>4996</v>
       </c>
       <c r="D135" t="n">
-        <v>4991</v>
+        <v>5000</v>
       </c>
       <c r="E135" t="n">
-        <v>4989</v>
+        <v>4996</v>
       </c>
       <c r="F135" t="n">
-        <v>99.75</v>
+        <v>4.2028</v>
       </c>
       <c r="G135" t="n">
-        <v>4984.6</v>
+        <v>4984.183333333333</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5005</v>
+        <v>4991</v>
       </c>
       <c r="C136" t="n">
-        <v>4980</v>
+        <v>4989</v>
       </c>
       <c r="D136" t="n">
-        <v>5005</v>
+        <v>4991</v>
       </c>
       <c r="E136" t="n">
-        <v>4980</v>
+        <v>4989</v>
       </c>
       <c r="F136" t="n">
-        <v>143.8147</v>
+        <v>99.75</v>
       </c>
       <c r="G136" t="n">
-        <v>4985.15</v>
+        <v>4984.6</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4979</v>
+        <v>5005</v>
       </c>
       <c r="C137" t="n">
-        <v>4979</v>
+        <v>4980</v>
       </c>
       <c r="D137" t="n">
-        <v>4979</v>
+        <v>5005</v>
       </c>
       <c r="E137" t="n">
-        <v>4979</v>
+        <v>4980</v>
       </c>
       <c r="F137" t="n">
-        <v>37.6346</v>
+        <v>143.8147</v>
       </c>
       <c r="G137" t="n">
-        <v>4985.55</v>
+        <v>4985.15</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4980</v>
+        <v>4979</v>
       </c>
       <c r="C138" t="n">
-        <v>4981</v>
+        <v>4979</v>
       </c>
       <c r="D138" t="n">
-        <v>4981</v>
+        <v>4979</v>
       </c>
       <c r="E138" t="n">
-        <v>4980</v>
+        <v>4979</v>
       </c>
       <c r="F138" t="n">
-        <v>99.2</v>
+        <v>37.6346</v>
       </c>
       <c r="G138" t="n">
-        <v>4986.066666666667</v>
+        <v>4985.55</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4976</v>
+        <v>4980</v>
       </c>
       <c r="C139" t="n">
-        <v>4976</v>
+        <v>4981</v>
       </c>
       <c r="D139" t="n">
-        <v>4976</v>
+        <v>4981</v>
       </c>
       <c r="E139" t="n">
-        <v>4976</v>
+        <v>4980</v>
       </c>
       <c r="F139" t="n">
-        <v>95.51990000000001</v>
+        <v>99.2</v>
       </c>
       <c r="G139" t="n">
-        <v>4986.583333333333</v>
+        <v>4986.066666666667</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4979</v>
+        <v>4976</v>
       </c>
       <c r="C140" t="n">
         <v>4976</v>
       </c>
       <c r="D140" t="n">
-        <v>4979</v>
+        <v>4976</v>
       </c>
       <c r="E140" t="n">
         <v>4976</v>
       </c>
       <c r="F140" t="n">
-        <v>3.9951</v>
+        <v>95.51990000000001</v>
       </c>
       <c r="G140" t="n">
-        <v>4986.95</v>
+        <v>4986.583333333333</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4984</v>
+        <v>4979</v>
       </c>
       <c r="C141" t="n">
-        <v>4985</v>
+        <v>4976</v>
       </c>
       <c r="D141" t="n">
-        <v>4985</v>
+        <v>4979</v>
       </c>
       <c r="E141" t="n">
-        <v>4984</v>
+        <v>4976</v>
       </c>
       <c r="F141" t="n">
-        <v>70.2064</v>
+        <v>3.9951</v>
       </c>
       <c r="G141" t="n">
-        <v>4987.7</v>
+        <v>4986.95</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,24 +4473,27 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4988</v>
+        <v>4984</v>
       </c>
       <c r="C142" t="n">
-        <v>4988</v>
+        <v>4985</v>
       </c>
       <c r="D142" t="n">
-        <v>4988</v>
+        <v>4985</v>
       </c>
       <c r="E142" t="n">
-        <v>4988</v>
+        <v>4984</v>
       </c>
       <c r="F142" t="n">
-        <v>50</v>
+        <v>70.2064</v>
       </c>
       <c r="G142" t="n">
-        <v>4988.316666666667</v>
+        <v>4987.7</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4992</v>
+        <v>4988</v>
       </c>
       <c r="C143" t="n">
-        <v>4992</v>
+        <v>4988</v>
       </c>
       <c r="D143" t="n">
-        <v>4992</v>
+        <v>4988</v>
       </c>
       <c r="E143" t="n">
-        <v>4992</v>
+        <v>4988</v>
       </c>
       <c r="F143" t="n">
-        <v>0.3163</v>
+        <v>50</v>
       </c>
       <c r="G143" t="n">
-        <v>4988.883333333333</v>
+        <v>4988.316666666667</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4996</v>
+        <v>4992</v>
       </c>
       <c r="C144" t="n">
-        <v>4996</v>
+        <v>4992</v>
       </c>
       <c r="D144" t="n">
-        <v>4996</v>
+        <v>4992</v>
       </c>
       <c r="E144" t="n">
-        <v>4996</v>
+        <v>4992</v>
       </c>
       <c r="F144" t="n">
-        <v>17.2945</v>
+        <v>0.3163</v>
       </c>
       <c r="G144" t="n">
-        <v>4989.633333333333</v>
+        <v>4988.883333333333</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4126,24 +4560,27 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4995</v>
+        <v>4996</v>
       </c>
       <c r="C145" t="n">
-        <v>4999</v>
+        <v>4996</v>
       </c>
       <c r="D145" t="n">
-        <v>4999</v>
+        <v>4996</v>
       </c>
       <c r="E145" t="n">
-        <v>4990</v>
+        <v>4996</v>
       </c>
       <c r="F145" t="n">
-        <v>34.4367</v>
+        <v>17.2945</v>
       </c>
       <c r="G145" t="n">
-        <v>4990.3</v>
+        <v>4989.633333333333</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4155,21 +4592,24 @@
         <v>4995</v>
       </c>
       <c r="C146" t="n">
-        <v>5010</v>
+        <v>4999</v>
       </c>
       <c r="D146" t="n">
-        <v>5010</v>
+        <v>4999</v>
       </c>
       <c r="E146" t="n">
-        <v>4995</v>
+        <v>4990</v>
       </c>
       <c r="F146" t="n">
-        <v>178.2411</v>
+        <v>34.4367</v>
       </c>
       <c r="G146" t="n">
-        <v>4991.2</v>
+        <v>4990.3</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5015</v>
+        <v>4995</v>
       </c>
       <c r="C147" t="n">
-        <v>5005</v>
+        <v>5010</v>
       </c>
       <c r="D147" t="n">
-        <v>5015</v>
+        <v>5010</v>
       </c>
       <c r="E147" t="n">
-        <v>5005</v>
+        <v>4995</v>
       </c>
       <c r="F147" t="n">
-        <v>50.1264630109671</v>
+        <v>178.2411</v>
       </c>
       <c r="G147" t="n">
-        <v>4991.883333333333</v>
+        <v>4991.2</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4204,24 +4647,27 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5000</v>
+        <v>5015</v>
       </c>
       <c r="C148" t="n">
-        <v>5000</v>
+        <v>5005</v>
       </c>
       <c r="D148" t="n">
-        <v>5000</v>
+        <v>5015</v>
       </c>
       <c r="E148" t="n">
-        <v>5000</v>
+        <v>5005</v>
       </c>
       <c r="F148" t="n">
-        <v>20.292</v>
+        <v>50.1264630109671</v>
       </c>
       <c r="G148" t="n">
-        <v>4992.45</v>
+        <v>4991.883333333333</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,24 +4676,27 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5005</v>
+        <v>5000</v>
       </c>
       <c r="C149" t="n">
         <v>5000</v>
       </c>
       <c r="D149" t="n">
-        <v>5005</v>
+        <v>5000</v>
       </c>
       <c r="E149" t="n">
         <v>5000</v>
       </c>
       <c r="F149" t="n">
-        <v>600.2745</v>
+        <v>20.292</v>
       </c>
       <c r="G149" t="n">
-        <v>4993.283333333334</v>
+        <v>4992.45</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,24 +4705,27 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4999</v>
+        <v>5005</v>
       </c>
       <c r="C150" t="n">
-        <v>4998</v>
+        <v>5000</v>
       </c>
       <c r="D150" t="n">
-        <v>4999</v>
+        <v>5005</v>
       </c>
       <c r="E150" t="n">
-        <v>4998</v>
+        <v>5000</v>
       </c>
       <c r="F150" t="n">
-        <v>49.875</v>
+        <v>600.2745</v>
       </c>
       <c r="G150" t="n">
-        <v>4993.9</v>
+        <v>4993.283333333334</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
+        <v>4999</v>
+      </c>
+      <c r="C151" t="n">
         <v>4998</v>
       </c>
-      <c r="C151" t="n">
-        <v>4996</v>
-      </c>
       <c r="D151" t="n">
+        <v>4999</v>
+      </c>
+      <c r="E151" t="n">
         <v>4998</v>
       </c>
-      <c r="E151" t="n">
-        <v>4996</v>
-      </c>
       <c r="F151" t="n">
-        <v>600.2745</v>
+        <v>49.875</v>
       </c>
       <c r="G151" t="n">
-        <v>4994.416666666667</v>
+        <v>4993.9</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5005</v>
+        <v>4998</v>
       </c>
       <c r="C152" t="n">
-        <v>5005</v>
+        <v>4996</v>
       </c>
       <c r="D152" t="n">
-        <v>5005</v>
+        <v>4998</v>
       </c>
       <c r="E152" t="n">
-        <v>5005</v>
+        <v>4996</v>
       </c>
       <c r="F152" t="n">
-        <v>42.4746</v>
+        <v>600.2745</v>
       </c>
       <c r="G152" t="n">
-        <v>4995.216666666666</v>
+        <v>4994.416666666667</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,24 +4792,27 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4996</v>
+        <v>5005</v>
       </c>
       <c r="C153" t="n">
-        <v>5000</v>
+        <v>5005</v>
       </c>
       <c r="D153" t="n">
         <v>5005</v>
       </c>
       <c r="E153" t="n">
-        <v>4996</v>
+        <v>5005</v>
       </c>
       <c r="F153" t="n">
-        <v>835.3696</v>
+        <v>42.4746</v>
       </c>
       <c r="G153" t="n">
-        <v>4996.083333333333</v>
+        <v>4995.216666666666</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5005</v>
+        <v>4996</v>
       </c>
       <c r="C154" t="n">
-        <v>5005</v>
+        <v>5000</v>
       </c>
       <c r="D154" t="n">
         <v>5005</v>
       </c>
       <c r="E154" t="n">
-        <v>5005</v>
+        <v>4996</v>
       </c>
       <c r="F154" t="n">
-        <v>100</v>
+        <v>835.3696</v>
       </c>
       <c r="G154" t="n">
-        <v>4997.016666666666</v>
+        <v>4996.083333333333</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,24 +4850,27 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4995</v>
+        <v>5005</v>
       </c>
       <c r="C155" t="n">
-        <v>4995</v>
+        <v>5005</v>
       </c>
       <c r="D155" t="n">
-        <v>4995</v>
+        <v>5005</v>
       </c>
       <c r="E155" t="n">
-        <v>4995</v>
+        <v>5005</v>
       </c>
       <c r="F155" t="n">
-        <v>161.6479</v>
+        <v>100</v>
       </c>
       <c r="G155" t="n">
-        <v>4997.933333333333</v>
+        <v>4997.016666666666</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4424,12 +4891,15 @@
         <v>4995</v>
       </c>
       <c r="F156" t="n">
-        <v>4.1609</v>
+        <v>161.6479</v>
       </c>
       <c r="G156" t="n">
-        <v>4998.6</v>
+        <v>4997.933333333333</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,24 +4908,27 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5000</v>
+        <v>4995</v>
       </c>
       <c r="C157" t="n">
-        <v>5000</v>
+        <v>4995</v>
       </c>
       <c r="D157" t="n">
-        <v>5000</v>
+        <v>4995</v>
       </c>
       <c r="E157" t="n">
-        <v>5000</v>
+        <v>4995</v>
       </c>
       <c r="F157" t="n">
-        <v>146</v>
+        <v>4.1609</v>
       </c>
       <c r="G157" t="n">
-        <v>4999.35</v>
+        <v>4998.6</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4467,21 +4940,24 @@
         <v>5000</v>
       </c>
       <c r="C158" t="n">
-        <v>5005</v>
+        <v>5000</v>
       </c>
       <c r="D158" t="n">
-        <v>5005</v>
+        <v>5000</v>
       </c>
       <c r="E158" t="n">
         <v>5000</v>
       </c>
       <c r="F158" t="n">
-        <v>110.1742</v>
+        <v>146</v>
       </c>
       <c r="G158" t="n">
-        <v>5000.133333333333</v>
+        <v>4999.35</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,24 +4966,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5015</v>
+        <v>5000</v>
       </c>
       <c r="C159" t="n">
-        <v>5000</v>
+        <v>5005</v>
       </c>
       <c r="D159" t="n">
-        <v>5020</v>
+        <v>5005</v>
       </c>
       <c r="E159" t="n">
         <v>5000</v>
       </c>
       <c r="F159" t="n">
-        <v>350.6869</v>
+        <v>110.1742</v>
       </c>
       <c r="G159" t="n">
-        <v>5000.716666666666</v>
+        <v>5000.133333333333</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,24 +4995,27 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5010</v>
+        <v>5015</v>
       </c>
       <c r="C160" t="n">
         <v>5000</v>
       </c>
       <c r="D160" t="n">
-        <v>5010</v>
+        <v>5020</v>
       </c>
       <c r="E160" t="n">
         <v>5000</v>
       </c>
       <c r="F160" t="n">
-        <v>40.921</v>
+        <v>350.6869</v>
       </c>
       <c r="G160" t="n">
-        <v>5001.466666666666</v>
+        <v>5000.716666666666</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,24 +5024,27 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4998</v>
+        <v>5010</v>
       </c>
       <c r="C161" t="n">
-        <v>4998</v>
+        <v>5000</v>
       </c>
       <c r="D161" t="n">
-        <v>4998</v>
+        <v>5010</v>
       </c>
       <c r="E161" t="n">
-        <v>4998</v>
+        <v>5000</v>
       </c>
       <c r="F161" t="n">
-        <v>97.0412</v>
+        <v>40.921</v>
       </c>
       <c r="G161" t="n">
-        <v>5001.95</v>
+        <v>5001.466666666666</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,24 +5053,27 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4990</v>
+        <v>4998</v>
       </c>
       <c r="C162" t="n">
-        <v>4990</v>
+        <v>4998</v>
       </c>
       <c r="D162" t="n">
-        <v>4990</v>
+        <v>4998</v>
       </c>
       <c r="E162" t="n">
-        <v>4990</v>
+        <v>4998</v>
       </c>
       <c r="F162" t="n">
-        <v>49.088</v>
+        <v>97.0412</v>
       </c>
       <c r="G162" t="n">
-        <v>5002.3</v>
+        <v>5001.95</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,24 +5082,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4986</v>
+        <v>4990</v>
       </c>
       <c r="C163" t="n">
-        <v>4986</v>
+        <v>4990</v>
       </c>
       <c r="D163" t="n">
-        <v>4986</v>
+        <v>4990</v>
       </c>
       <c r="E163" t="n">
-        <v>4986</v>
+        <v>4990</v>
       </c>
       <c r="F163" t="n">
-        <v>1.6203</v>
+        <v>49.088</v>
       </c>
       <c r="G163" t="n">
-        <v>5002.383333333333</v>
+        <v>5002.3</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4620,24 +5111,27 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4988</v>
+        <v>4986</v>
       </c>
       <c r="C164" t="n">
-        <v>4988</v>
+        <v>4986</v>
       </c>
       <c r="D164" t="n">
-        <v>4988</v>
+        <v>4986</v>
       </c>
       <c r="E164" t="n">
-        <v>4988</v>
+        <v>4986</v>
       </c>
       <c r="F164" t="n">
-        <v>2.0043</v>
+        <v>1.6203</v>
       </c>
       <c r="G164" t="n">
         <v>5002.383333333333</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,24 +5140,27 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4987</v>
+        <v>4988</v>
       </c>
       <c r="C165" t="n">
-        <v>4987</v>
+        <v>4988</v>
       </c>
       <c r="D165" t="n">
-        <v>4987</v>
+        <v>4988</v>
       </c>
       <c r="E165" t="n">
-        <v>4987</v>
+        <v>4988</v>
       </c>
       <c r="F165" t="n">
-        <v>49.8109</v>
+        <v>2.0043</v>
       </c>
       <c r="G165" t="n">
-        <v>5002.45</v>
+        <v>5002.383333333333</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,24 +5169,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4977</v>
+        <v>4987</v>
       </c>
       <c r="C166" t="n">
-        <v>4977</v>
+        <v>4987</v>
       </c>
       <c r="D166" t="n">
-        <v>4977</v>
+        <v>4987</v>
       </c>
       <c r="E166" t="n">
-        <v>4977</v>
+        <v>4987</v>
       </c>
       <c r="F166" t="n">
-        <v>4.3209</v>
+        <v>49.8109</v>
       </c>
       <c r="G166" t="n">
-        <v>5002.233333333334</v>
+        <v>5002.45</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,24 +5198,27 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4986</v>
+        <v>4977</v>
       </c>
       <c r="C167" t="n">
-        <v>4990</v>
+        <v>4977</v>
       </c>
       <c r="D167" t="n">
-        <v>4990</v>
+        <v>4977</v>
       </c>
       <c r="E167" t="n">
-        <v>4986</v>
+        <v>4977</v>
       </c>
       <c r="F167" t="n">
-        <v>160.45</v>
+        <v>4.3209</v>
       </c>
       <c r="G167" t="n">
-        <v>5002.1</v>
+        <v>5002.233333333334</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4987</v>
+        <v>4986</v>
       </c>
       <c r="C168" t="n">
-        <v>4989</v>
+        <v>4990</v>
       </c>
       <c r="D168" t="n">
-        <v>4989</v>
+        <v>4990</v>
       </c>
       <c r="E168" t="n">
-        <v>4987</v>
+        <v>4986</v>
       </c>
       <c r="F168" t="n">
-        <v>163.277</v>
+        <v>160.45</v>
       </c>
       <c r="G168" t="n">
-        <v>5002.133333333333</v>
+        <v>5002.1</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,24 +5256,27 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4988</v>
+        <v>4987</v>
       </c>
       <c r="C169" t="n">
-        <v>4977</v>
+        <v>4989</v>
       </c>
       <c r="D169" t="n">
-        <v>4988</v>
+        <v>4989</v>
       </c>
       <c r="E169" t="n">
-        <v>4977</v>
+        <v>4987</v>
       </c>
       <c r="F169" t="n">
-        <v>9.686500000000001</v>
+        <v>163.277</v>
       </c>
       <c r="G169" t="n">
-        <v>5001.583333333333</v>
+        <v>5002.133333333333</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4776,24 +5285,27 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4995</v>
+        <v>4988</v>
       </c>
       <c r="C170" t="n">
-        <v>4995</v>
+        <v>4977</v>
       </c>
       <c r="D170" t="n">
-        <v>4995</v>
+        <v>4988</v>
       </c>
       <c r="E170" t="n">
-        <v>4995</v>
+        <v>4977</v>
       </c>
       <c r="F170" t="n">
-        <v>20</v>
+        <v>9.686500000000001</v>
       </c>
       <c r="G170" t="n">
-        <v>5001.333333333333</v>
+        <v>5001.583333333333</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,24 +5314,27 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4983</v>
+        <v>4995</v>
       </c>
       <c r="C171" t="n">
-        <v>4983</v>
+        <v>4995</v>
       </c>
       <c r="D171" t="n">
-        <v>4983</v>
+        <v>4995</v>
       </c>
       <c r="E171" t="n">
-        <v>4983</v>
+        <v>4995</v>
       </c>
       <c r="F171" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G171" t="n">
-        <v>5000.883333333333</v>
+        <v>5001.333333333333</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4828,24 +5343,27 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4996</v>
+        <v>4983</v>
       </c>
       <c r="C172" t="n">
-        <v>4996</v>
+        <v>4983</v>
       </c>
       <c r="D172" t="n">
-        <v>4996</v>
+        <v>4983</v>
       </c>
       <c r="E172" t="n">
-        <v>4996</v>
+        <v>4983</v>
       </c>
       <c r="F172" t="n">
-        <v>2.8193</v>
+        <v>2</v>
       </c>
       <c r="G172" t="n">
-        <v>5000.316666666667</v>
+        <v>5000.883333333333</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,24 +5372,27 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5010</v>
+        <v>4996</v>
       </c>
       <c r="C173" t="n">
-        <v>5010</v>
+        <v>4996</v>
       </c>
       <c r="D173" t="n">
-        <v>5010</v>
+        <v>4996</v>
       </c>
       <c r="E173" t="n">
-        <v>5010</v>
+        <v>4996</v>
       </c>
       <c r="F173" t="n">
-        <v>100.8636</v>
+        <v>2.8193</v>
       </c>
       <c r="G173" t="n">
         <v>5000.316666666667</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,24 +5401,27 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5005</v>
+        <v>5010</v>
       </c>
       <c r="C174" t="n">
-        <v>5005</v>
+        <v>5010</v>
       </c>
       <c r="D174" t="n">
-        <v>5005</v>
+        <v>5010</v>
       </c>
       <c r="E174" t="n">
-        <v>5005</v>
+        <v>5010</v>
       </c>
       <c r="F174" t="n">
-        <v>1</v>
+        <v>100.8636</v>
       </c>
       <c r="G174" t="n">
-        <v>5000.533333333334</v>
+        <v>5000.316666666667</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,24 +5430,27 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5010</v>
+        <v>5005</v>
       </c>
       <c r="C175" t="n">
-        <v>5010</v>
+        <v>5005</v>
       </c>
       <c r="D175" t="n">
-        <v>5010</v>
+        <v>5005</v>
       </c>
       <c r="E175" t="n">
-        <v>5010</v>
+        <v>5005</v>
       </c>
       <c r="F175" t="n">
-        <v>132.9119</v>
+        <v>1</v>
       </c>
       <c r="G175" t="n">
-        <v>5000.616666666667</v>
+        <v>5000.533333333334</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4932,24 +5459,27 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5020</v>
+        <v>5010</v>
       </c>
       <c r="C176" t="n">
-        <v>5020</v>
+        <v>5010</v>
       </c>
       <c r="D176" t="n">
-        <v>5020</v>
+        <v>5010</v>
       </c>
       <c r="E176" t="n">
-        <v>5020</v>
+        <v>5010</v>
       </c>
       <c r="F176" t="n">
-        <v>300.2991</v>
+        <v>132.9119</v>
       </c>
       <c r="G176" t="n">
-        <v>5000.783333333334</v>
+        <v>5000.616666666667</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,24 +5488,27 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5025</v>
+        <v>5020</v>
       </c>
       <c r="C177" t="n">
-        <v>5035</v>
+        <v>5020</v>
       </c>
       <c r="D177" t="n">
-        <v>5035</v>
+        <v>5020</v>
       </c>
       <c r="E177" t="n">
-        <v>5025</v>
+        <v>5020</v>
       </c>
       <c r="F177" t="n">
-        <v>305.2671</v>
+        <v>300.2991</v>
       </c>
       <c r="G177" t="n">
-        <v>5001.2</v>
+        <v>5000.783333333334</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4987,21 +5520,24 @@
         <v>5025</v>
       </c>
       <c r="C178" t="n">
-        <v>5025</v>
+        <v>5035</v>
       </c>
       <c r="D178" t="n">
-        <v>5025</v>
+        <v>5035</v>
       </c>
       <c r="E178" t="n">
         <v>5025</v>
       </c>
       <c r="F178" t="n">
-        <v>11.9402</v>
+        <v>305.2671</v>
       </c>
       <c r="G178" t="n">
-        <v>5001.45</v>
+        <v>5001.2</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,24 +5546,27 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>5020</v>
+        <v>5025</v>
       </c>
       <c r="C179" t="n">
-        <v>5030</v>
+        <v>5025</v>
       </c>
       <c r="D179" t="n">
-        <v>5030</v>
+        <v>5025</v>
       </c>
       <c r="E179" t="n">
-        <v>5020</v>
+        <v>5025</v>
       </c>
       <c r="F179" t="n">
-        <v>167.4314</v>
+        <v>11.9402</v>
       </c>
       <c r="G179" t="n">
-        <v>5001.95</v>
+        <v>5001.45</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5039,22 +5578,25 @@
         <v>5020</v>
       </c>
       <c r="C180" t="n">
-        <v>5020</v>
+        <v>5030</v>
       </c>
       <c r="D180" t="n">
-        <v>5020</v>
+        <v>5030</v>
       </c>
       <c r="E180" t="n">
         <v>5020</v>
       </c>
       <c r="F180" t="n">
-        <v>9.42</v>
+        <v>167.4314</v>
       </c>
       <c r="G180" t="n">
-        <v>5002.116666666667</v>
+        <v>5001.95</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -5062,25 +5604,28 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>5015</v>
+        <v>5020</v>
       </c>
       <c r="C181" t="n">
-        <v>5015</v>
+        <v>5020</v>
       </c>
       <c r="D181" t="n">
-        <v>5015</v>
+        <v>5020</v>
       </c>
       <c r="E181" t="n">
-        <v>5015</v>
+        <v>5020</v>
       </c>
       <c r="F181" t="n">
-        <v>73.6474</v>
+        <v>9.42</v>
       </c>
       <c r="G181" t="n">
         <v>5002.116666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -5088,25 +5633,28 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>5010</v>
+        <v>5015</v>
       </c>
       <c r="C182" t="n">
-        <v>5010</v>
+        <v>5015</v>
       </c>
       <c r="D182" t="n">
-        <v>5010</v>
+        <v>5015</v>
       </c>
       <c r="E182" t="n">
-        <v>5010</v>
+        <v>5015</v>
       </c>
       <c r="F182" t="n">
-        <v>106</v>
+        <v>73.6474</v>
       </c>
       <c r="G182" t="n">
-        <v>5001.783333333334</v>
+        <v>5002.116666666667</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -5114,24 +5662,27 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>5015</v>
+        <v>5010</v>
       </c>
       <c r="C183" t="n">
-        <v>5015</v>
+        <v>5010</v>
       </c>
       <c r="D183" t="n">
-        <v>5015</v>
+        <v>5010</v>
       </c>
       <c r="E183" t="n">
-        <v>5015</v>
+        <v>5010</v>
       </c>
       <c r="F183" t="n">
-        <v>3.0034</v>
+        <v>106</v>
       </c>
       <c r="G183" t="n">
-        <v>5001.533333333334</v>
+        <v>5001.783333333334</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5140,24 +5691,27 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>5040</v>
+        <v>5015</v>
       </c>
       <c r="C184" t="n">
-        <v>5045</v>
+        <v>5015</v>
       </c>
       <c r="D184" t="n">
-        <v>5045</v>
+        <v>5015</v>
       </c>
       <c r="E184" t="n">
-        <v>5040</v>
+        <v>5015</v>
       </c>
       <c r="F184" t="n">
-        <v>109.0782</v>
+        <v>3.0034</v>
       </c>
       <c r="G184" t="n">
-        <v>5001.7</v>
+        <v>5001.533333333334</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5169,21 +5723,24 @@
         <v>5040</v>
       </c>
       <c r="C185" t="n">
-        <v>5040</v>
+        <v>5045</v>
       </c>
       <c r="D185" t="n">
-        <v>5040</v>
+        <v>5045</v>
       </c>
       <c r="E185" t="n">
         <v>5040</v>
       </c>
       <c r="F185" t="n">
-        <v>0.8274</v>
+        <v>109.0782</v>
       </c>
       <c r="G185" t="n">
-        <v>5002.2</v>
+        <v>5001.7</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5192,7 +5749,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>5035</v>
+        <v>5040</v>
       </c>
       <c r="C186" t="n">
         <v>5040</v>
@@ -5201,16 +5758,19 @@
         <v>5040</v>
       </c>
       <c r="E186" t="n">
-        <v>5030</v>
+        <v>5040</v>
       </c>
       <c r="F186" t="n">
-        <v>271.5629</v>
+        <v>0.8274</v>
       </c>
       <c r="G186" t="n">
-        <v>5002.783333333334</v>
+        <v>5002.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -5218,25 +5778,28 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>5050</v>
+        <v>5035</v>
       </c>
       <c r="C187" t="n">
-        <v>5050</v>
+        <v>5040</v>
       </c>
       <c r="D187" t="n">
-        <v>5050</v>
+        <v>5040</v>
       </c>
       <c r="E187" t="n">
-        <v>5050</v>
+        <v>5030</v>
       </c>
       <c r="F187" t="n">
-        <v>201.9801</v>
+        <v>271.5629</v>
       </c>
       <c r="G187" t="n">
-        <v>5003.45</v>
+        <v>5002.783333333334</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -5244,25 +5807,28 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>5065</v>
+        <v>5050</v>
       </c>
       <c r="C188" t="n">
-        <v>5065</v>
+        <v>5050</v>
       </c>
       <c r="D188" t="n">
-        <v>5065</v>
+        <v>5050</v>
       </c>
       <c r="E188" t="n">
-        <v>5065</v>
+        <v>5050</v>
       </c>
       <c r="F188" t="n">
-        <v>0.1</v>
+        <v>201.9801</v>
       </c>
       <c r="G188" t="n">
-        <v>5004.283333333334</v>
+        <v>5003.45</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -5270,25 +5836,28 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>5055</v>
+        <v>5065</v>
       </c>
       <c r="C189" t="n">
-        <v>5055</v>
+        <v>5065</v>
       </c>
       <c r="D189" t="n">
-        <v>5055</v>
+        <v>5065</v>
       </c>
       <c r="E189" t="n">
-        <v>5055</v>
+        <v>5065</v>
       </c>
       <c r="F189" t="n">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="G189" t="n">
-        <v>5004.866666666667</v>
+        <v>5004.283333333334</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -5296,25 +5865,28 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>5050</v>
+        <v>5055</v>
       </c>
       <c r="C190" t="n">
-        <v>5050</v>
+        <v>5055</v>
       </c>
       <c r="D190" t="n">
-        <v>5050</v>
+        <v>5055</v>
       </c>
       <c r="E190" t="n">
-        <v>5050</v>
+        <v>5055</v>
       </c>
       <c r="F190" t="n">
-        <v>55.8543</v>
+        <v>100</v>
       </c>
       <c r="G190" t="n">
-        <v>5005.283333333334</v>
+        <v>5004.866666666667</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -5334,13 +5906,16 @@
         <v>5050</v>
       </c>
       <c r="F191" t="n">
-        <v>199.5</v>
+        <v>55.8543</v>
       </c>
       <c r="G191" t="n">
-        <v>5005.616666666667</v>
+        <v>5005.283333333334</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -5348,25 +5923,28 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>5045</v>
+        <v>5050</v>
       </c>
       <c r="C192" t="n">
-        <v>5045</v>
+        <v>5050</v>
       </c>
       <c r="D192" t="n">
-        <v>5045</v>
+        <v>5050</v>
       </c>
       <c r="E192" t="n">
-        <v>5045</v>
+        <v>5050</v>
       </c>
       <c r="F192" t="n">
-        <v>2</v>
+        <v>199.5</v>
       </c>
       <c r="G192" t="n">
-        <v>5006.033333333334</v>
+        <v>5005.616666666667</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -5374,25 +5952,28 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>5035</v>
+        <v>5045</v>
       </c>
       <c r="C193" t="n">
-        <v>5035</v>
+        <v>5045</v>
       </c>
       <c r="D193" t="n">
-        <v>5035</v>
+        <v>5045</v>
       </c>
       <c r="E193" t="n">
-        <v>5035</v>
+        <v>5045</v>
       </c>
       <c r="F193" t="n">
-        <v>28.8184</v>
+        <v>2</v>
       </c>
       <c r="G193" t="n">
-        <v>5006.283333333334</v>
+        <v>5006.033333333334</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -5400,24 +5981,27 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>5030</v>
+        <v>5035</v>
       </c>
       <c r="C194" t="n">
-        <v>5030</v>
+        <v>5035</v>
       </c>
       <c r="D194" t="n">
-        <v>5030</v>
+        <v>5035</v>
       </c>
       <c r="E194" t="n">
-        <v>5030</v>
+        <v>5035</v>
       </c>
       <c r="F194" t="n">
-        <v>40.8011</v>
+        <v>28.8184</v>
       </c>
       <c r="G194" t="n">
-        <v>5006.85</v>
+        <v>5006.283333333334</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5426,24 +6010,27 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>5040</v>
+        <v>5030</v>
       </c>
       <c r="C195" t="n">
-        <v>5035</v>
+        <v>5030</v>
       </c>
       <c r="D195" t="n">
-        <v>5040</v>
+        <v>5030</v>
       </c>
       <c r="E195" t="n">
-        <v>5035</v>
+        <v>5030</v>
       </c>
       <c r="F195" t="n">
-        <v>100.6588</v>
+        <v>40.8011</v>
       </c>
       <c r="G195" t="n">
-        <v>5007.616666666667</v>
+        <v>5006.85</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5452,24 +6039,27 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>5025</v>
+        <v>5040</v>
       </c>
       <c r="C196" t="n">
-        <v>5025</v>
+        <v>5035</v>
       </c>
       <c r="D196" t="n">
-        <v>5025</v>
+        <v>5040</v>
       </c>
       <c r="E196" t="n">
-        <v>5025</v>
+        <v>5035</v>
       </c>
       <c r="F196" t="n">
-        <v>102.8454</v>
+        <v>100.6588</v>
       </c>
       <c r="G196" t="n">
-        <v>5008.366666666667</v>
+        <v>5007.616666666667</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5490,12 +6080,15 @@
         <v>5025</v>
       </c>
       <c r="F197" t="n">
-        <v>18.3723</v>
+        <v>102.8454</v>
       </c>
       <c r="G197" t="n">
-        <v>5009.133333333333</v>
+        <v>5008.366666666667</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5507,21 +6100,24 @@
         <v>5025</v>
       </c>
       <c r="C198" t="n">
-        <v>5020</v>
+        <v>5025</v>
       </c>
       <c r="D198" t="n">
         <v>5025</v>
       </c>
       <c r="E198" t="n">
-        <v>5020</v>
+        <v>5025</v>
       </c>
       <c r="F198" t="n">
-        <v>664.6191</v>
+        <v>18.3723</v>
       </c>
       <c r="G198" t="n">
-        <v>5009.783333333334</v>
+        <v>5009.133333333333</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5530,24 +6126,27 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
+        <v>5025</v>
+      </c>
+      <c r="C199" t="n">
         <v>5020</v>
       </c>
-      <c r="C199" t="n">
-        <v>5015</v>
-      </c>
       <c r="D199" t="n">
+        <v>5025</v>
+      </c>
+      <c r="E199" t="n">
         <v>5020</v>
       </c>
-      <c r="E199" t="n">
-        <v>5010</v>
-      </c>
       <c r="F199" t="n">
-        <v>502.6186</v>
+        <v>664.6191</v>
       </c>
       <c r="G199" t="n">
-        <v>5010.433333333333</v>
+        <v>5009.783333333334</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5556,24 +6155,27 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
+        <v>5020</v>
+      </c>
+      <c r="C200" t="n">
         <v>5015</v>
       </c>
-      <c r="C200" t="n">
-        <v>5000</v>
-      </c>
       <c r="D200" t="n">
-        <v>5015</v>
+        <v>5020</v>
       </c>
       <c r="E200" t="n">
-        <v>5000</v>
+        <v>5010</v>
       </c>
       <c r="F200" t="n">
-        <v>346.0794</v>
+        <v>502.6186</v>
       </c>
       <c r="G200" t="n">
-        <v>5010.833333333333</v>
+        <v>5010.433333333333</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5585,21 +6187,24 @@
         <v>5015</v>
       </c>
       <c r="C201" t="n">
-        <v>5020</v>
+        <v>5000</v>
       </c>
       <c r="D201" t="n">
-        <v>5020</v>
+        <v>5015</v>
       </c>
       <c r="E201" t="n">
-        <v>5015</v>
+        <v>5000</v>
       </c>
       <c r="F201" t="n">
-        <v>209.3583161354582</v>
+        <v>346.0794</v>
       </c>
       <c r="G201" t="n">
-        <v>5011.416666666667</v>
+        <v>5010.833333333333</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5608,24 +6213,27 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>5010</v>
+        <v>5015</v>
       </c>
       <c r="C202" t="n">
-        <v>5010</v>
+        <v>5020</v>
       </c>
       <c r="D202" t="n">
-        <v>5010</v>
+        <v>5020</v>
       </c>
       <c r="E202" t="n">
-        <v>5010</v>
+        <v>5015</v>
       </c>
       <c r="F202" t="n">
-        <v>300.2991</v>
+        <v>209.3583161354582</v>
       </c>
       <c r="G202" t="n">
-        <v>5011.783333333334</v>
+        <v>5011.416666666667</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5646,12 +6254,15 @@
         <v>5010</v>
       </c>
       <c r="F203" t="n">
-        <v>13.304</v>
+        <v>300.2991</v>
       </c>
       <c r="G203" t="n">
-        <v>5012.083333333333</v>
+        <v>5011.783333333334</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5672,12 +6283,15 @@
         <v>5010</v>
       </c>
       <c r="F204" t="n">
-        <v>60.9901</v>
+        <v>13.304</v>
       </c>
       <c r="G204" t="n">
-        <v>5012.316666666667</v>
+        <v>5012.083333333333</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5686,24 +6300,27 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>5005</v>
+        <v>5010</v>
       </c>
       <c r="C205" t="n">
-        <v>5005</v>
+        <v>5010</v>
       </c>
       <c r="D205" t="n">
-        <v>5005</v>
+        <v>5010</v>
       </c>
       <c r="E205" t="n">
-        <v>5005</v>
+        <v>5010</v>
       </c>
       <c r="F205" t="n">
-        <v>537.9668</v>
+        <v>60.9901</v>
       </c>
       <c r="G205" t="n">
-        <v>5012.416666666667</v>
+        <v>5012.316666666667</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5724,12 +6341,15 @@
         <v>5005</v>
       </c>
       <c r="F206" t="n">
-        <v>20.1871</v>
+        <v>537.9668</v>
       </c>
       <c r="G206" t="n">
-        <v>5012.333333333333</v>
+        <v>5012.416666666667</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5738,7 +6358,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>5000</v>
+        <v>5005</v>
       </c>
       <c r="C207" t="n">
         <v>5005</v>
@@ -5747,15 +6367,18 @@
         <v>5005</v>
       </c>
       <c r="E207" t="n">
-        <v>5000</v>
+        <v>5005</v>
       </c>
       <c r="F207" t="n">
-        <v>28.5692</v>
+        <v>20.1871</v>
       </c>
       <c r="G207" t="n">
         <v>5012.333333333333</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5764,24 +6387,27 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C208" t="n">
         <v>5005</v>
       </c>
-      <c r="C208" t="n">
-        <v>5010</v>
-      </c>
       <c r="D208" t="n">
-        <v>5010</v>
+        <v>5005</v>
       </c>
       <c r="E208" t="n">
-        <v>5005</v>
+        <v>5000</v>
       </c>
       <c r="F208" t="n">
-        <v>231.0888</v>
+        <v>28.5692</v>
       </c>
       <c r="G208" t="n">
-        <v>5012.5</v>
+        <v>5012.333333333333</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5790,24 +6416,27 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>5000</v>
+        <v>5005</v>
       </c>
       <c r="C209" t="n">
-        <v>5000</v>
+        <v>5010</v>
       </c>
       <c r="D209" t="n">
-        <v>5000</v>
+        <v>5010</v>
       </c>
       <c r="E209" t="n">
-        <v>5000</v>
+        <v>5005</v>
       </c>
       <c r="F209" t="n">
-        <v>40.2121</v>
+        <v>231.0888</v>
       </c>
       <c r="G209" t="n">
         <v>5012.5</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5825,15 +6454,18 @@
         <v>5000</v>
       </c>
       <c r="E210" t="n">
-        <v>4995</v>
+        <v>5000</v>
       </c>
       <c r="F210" t="n">
-        <v>33.9061</v>
+        <v>40.2121</v>
       </c>
       <c r="G210" t="n">
-        <v>5012.533333333334</v>
+        <v>5012.5</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5842,24 +6474,27 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>4982</v>
+        <v>5000</v>
       </c>
       <c r="C211" t="n">
-        <v>4992</v>
+        <v>5000</v>
       </c>
       <c r="D211" t="n">
-        <v>4992</v>
+        <v>5000</v>
       </c>
       <c r="E211" t="n">
-        <v>4982</v>
+        <v>4995</v>
       </c>
       <c r="F211" t="n">
-        <v>104.75</v>
+        <v>33.9061</v>
       </c>
       <c r="G211" t="n">
-        <v>5012.466666666666</v>
+        <v>5012.533333333334</v>
       </c>
       <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5868,24 +6503,27 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>4983</v>
+        <v>4982</v>
       </c>
       <c r="C212" t="n">
-        <v>4996</v>
+        <v>4992</v>
       </c>
       <c r="D212" t="n">
-        <v>4996</v>
+        <v>4992</v>
       </c>
       <c r="E212" t="n">
-        <v>4983</v>
+        <v>4982</v>
       </c>
       <c r="F212" t="n">
-        <v>2.200360128102482</v>
+        <v>104.75</v>
       </c>
       <c r="G212" t="n">
-        <v>5012.316666666667</v>
+        <v>5012.466666666666</v>
       </c>
       <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5894,24 +6532,27 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>4990</v>
+        <v>4983</v>
       </c>
       <c r="C213" t="n">
-        <v>4990</v>
+        <v>4996</v>
       </c>
       <c r="D213" t="n">
-        <v>4990</v>
+        <v>4996</v>
       </c>
       <c r="E213" t="n">
-        <v>4990</v>
+        <v>4983</v>
       </c>
       <c r="F213" t="n">
-        <v>1.4752</v>
+        <v>2.200360128102482</v>
       </c>
       <c r="G213" t="n">
-        <v>5012.15</v>
+        <v>5012.316666666667</v>
       </c>
       <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5932,12 +6573,15 @@
         <v>4990</v>
       </c>
       <c r="F214" t="n">
-        <v>19.5924</v>
+        <v>1.4752</v>
       </c>
       <c r="G214" t="n">
-        <v>5011.9</v>
+        <v>5012.15</v>
       </c>
       <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5946,24 +6590,27 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>5005</v>
+        <v>4990</v>
       </c>
       <c r="C215" t="n">
-        <v>5005</v>
+        <v>4990</v>
       </c>
       <c r="D215" t="n">
-        <v>5005</v>
+        <v>4990</v>
       </c>
       <c r="E215" t="n">
-        <v>5005</v>
+        <v>4990</v>
       </c>
       <c r="F215" t="n">
-        <v>11</v>
+        <v>19.5924</v>
       </c>
       <c r="G215" t="n">
-        <v>5012.066666666667</v>
+        <v>5011.9</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5972,24 +6619,27 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>4990</v>
+        <v>5005</v>
       </c>
       <c r="C216" t="n">
-        <v>4990</v>
+        <v>5005</v>
       </c>
       <c r="D216" t="n">
-        <v>4990</v>
+        <v>5005</v>
       </c>
       <c r="E216" t="n">
-        <v>4990</v>
+        <v>5005</v>
       </c>
       <c r="F216" t="n">
-        <v>13.4512</v>
+        <v>11</v>
       </c>
       <c r="G216" t="n">
-        <v>5011.983333333334</v>
+        <v>5012.066666666667</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6010,12 +6660,15 @@
         <v>4990</v>
       </c>
       <c r="F217" t="n">
-        <v>187.2488</v>
+        <v>13.4512</v>
       </c>
       <c r="G217" t="n">
-        <v>5011.816666666667</v>
+        <v>5011.983333333334</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6024,24 +6677,27 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>4983</v>
+        <v>4990</v>
       </c>
       <c r="C218" t="n">
-        <v>4987</v>
+        <v>4990</v>
       </c>
       <c r="D218" t="n">
-        <v>4993</v>
+        <v>4990</v>
       </c>
       <c r="E218" t="n">
-        <v>4975</v>
+        <v>4990</v>
       </c>
       <c r="F218" t="n">
-        <v>1151.3318</v>
+        <v>187.2488</v>
       </c>
       <c r="G218" t="n">
-        <v>5011.516666666666</v>
+        <v>5011.816666666667</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6050,24 +6706,27 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>4991</v>
+        <v>4983</v>
       </c>
       <c r="C219" t="n">
-        <v>4990</v>
+        <v>4987</v>
       </c>
       <c r="D219" t="n">
-        <v>5000</v>
+        <v>4993</v>
       </c>
       <c r="E219" t="n">
-        <v>4990</v>
+        <v>4975</v>
       </c>
       <c r="F219" t="n">
-        <v>333.3545</v>
+        <v>1151.3318</v>
       </c>
       <c r="G219" t="n">
-        <v>5011.35</v>
+        <v>5011.516666666666</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6076,24 +6735,27 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>5005</v>
+        <v>4991</v>
       </c>
       <c r="C220" t="n">
-        <v>4992</v>
+        <v>4990</v>
       </c>
       <c r="D220" t="n">
-        <v>5005</v>
+        <v>5000</v>
       </c>
       <c r="E220" t="n">
-        <v>4992</v>
+        <v>4990</v>
       </c>
       <c r="F220" t="n">
-        <v>18.0299</v>
+        <v>333.3545</v>
       </c>
       <c r="G220" t="n">
-        <v>5011.216666666666</v>
+        <v>5011.35</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6102,24 +6764,27 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>5000</v>
+        <v>5005</v>
       </c>
       <c r="C221" t="n">
-        <v>4986</v>
+        <v>4992</v>
       </c>
       <c r="D221" t="n">
-        <v>5010</v>
+        <v>5005</v>
       </c>
       <c r="E221" t="n">
-        <v>4986</v>
+        <v>4992</v>
       </c>
       <c r="F221" t="n">
-        <v>895.8305</v>
+        <v>18.0299</v>
       </c>
       <c r="G221" t="n">
-        <v>5011.016666666666</v>
+        <v>5011.216666666666</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6128,24 +6793,27 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>4994</v>
+        <v>5000</v>
       </c>
       <c r="C222" t="n">
-        <v>4994</v>
+        <v>4986</v>
       </c>
       <c r="D222" t="n">
-        <v>4994</v>
+        <v>5010</v>
       </c>
       <c r="E222" t="n">
-        <v>4994</v>
+        <v>4986</v>
       </c>
       <c r="F222" t="n">
-        <v>34.2192</v>
+        <v>895.8305</v>
       </c>
       <c r="G222" t="n">
-        <v>5011.083333333333</v>
+        <v>5011.016666666666</v>
       </c>
       <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6154,24 +6822,27 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>5000</v>
+        <v>4994</v>
       </c>
       <c r="C223" t="n">
-        <v>5000</v>
+        <v>4994</v>
       </c>
       <c r="D223" t="n">
-        <v>5000</v>
+        <v>4994</v>
       </c>
       <c r="E223" t="n">
-        <v>5000</v>
+        <v>4994</v>
       </c>
       <c r="F223" t="n">
-        <v>5.6923</v>
+        <v>34.2192</v>
       </c>
       <c r="G223" t="n">
-        <v>5011.316666666667</v>
+        <v>5011.083333333333</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6192,12 +6863,15 @@
         <v>5000</v>
       </c>
       <c r="F224" t="n">
-        <v>0.66</v>
+        <v>5.6923</v>
       </c>
       <c r="G224" t="n">
-        <v>5011.516666666666</v>
+        <v>5011.316666666667</v>
       </c>
       <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6206,24 +6880,27 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>4985</v>
+        <v>5000</v>
       </c>
       <c r="C225" t="n">
-        <v>4981</v>
+        <v>5000</v>
       </c>
       <c r="D225" t="n">
-        <v>4985</v>
+        <v>5000</v>
       </c>
       <c r="E225" t="n">
-        <v>4980</v>
+        <v>5000</v>
       </c>
       <c r="F225" t="n">
-        <v>155.6519</v>
+        <v>0.66</v>
       </c>
       <c r="G225" t="n">
-        <v>5011.416666666667</v>
+        <v>5011.516666666666</v>
       </c>
       <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6232,24 +6909,27 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>4984</v>
+        <v>4985</v>
       </c>
       <c r="C226" t="n">
-        <v>4985</v>
+        <v>4981</v>
       </c>
       <c r="D226" t="n">
         <v>4985</v>
       </c>
       <c r="E226" t="n">
-        <v>4984</v>
+        <v>4980</v>
       </c>
       <c r="F226" t="n">
-        <v>70.13</v>
+        <v>155.6519</v>
       </c>
       <c r="G226" t="n">
-        <v>5011.55</v>
+        <v>5011.416666666667</v>
       </c>
       <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6258,24 +6938,27 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>4977</v>
+        <v>4984</v>
       </c>
       <c r="C227" t="n">
-        <v>4982</v>
+        <v>4985</v>
       </c>
       <c r="D227" t="n">
-        <v>4982</v>
+        <v>4985</v>
       </c>
       <c r="E227" t="n">
-        <v>4970</v>
+        <v>4984</v>
       </c>
       <c r="F227" t="n">
-        <v>548.0127</v>
+        <v>70.13</v>
       </c>
       <c r="G227" t="n">
-        <v>5011.416666666667</v>
+        <v>5011.55</v>
       </c>
       <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6284,24 +6967,27 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>4975</v>
+        <v>4977</v>
       </c>
       <c r="C228" t="n">
-        <v>4973</v>
+        <v>4982</v>
       </c>
       <c r="D228" t="n">
-        <v>4975</v>
+        <v>4982</v>
       </c>
       <c r="E228" t="n">
-        <v>4965</v>
+        <v>4970</v>
       </c>
       <c r="F228" t="n">
-        <v>620.5185</v>
+        <v>548.0127</v>
       </c>
       <c r="G228" t="n">
-        <v>5011.15</v>
+        <v>5011.416666666667</v>
       </c>
       <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6310,24 +6996,27 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>4969</v>
+        <v>4975</v>
       </c>
       <c r="C229" t="n">
-        <v>4969</v>
+        <v>4973</v>
       </c>
       <c r="D229" t="n">
-        <v>4969</v>
+        <v>4975</v>
       </c>
       <c r="E229" t="n">
-        <v>4969</v>
+        <v>4965</v>
       </c>
       <c r="F229" t="n">
-        <v>39.8098</v>
+        <v>620.5185</v>
       </c>
       <c r="G229" t="n">
-        <v>5011.016666666666</v>
+        <v>5011.15</v>
       </c>
       <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6336,24 +7025,27 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>4962</v>
+        <v>4969</v>
       </c>
       <c r="C230" t="n">
-        <v>4962</v>
+        <v>4969</v>
       </c>
       <c r="D230" t="n">
-        <v>4962</v>
+        <v>4969</v>
       </c>
       <c r="E230" t="n">
-        <v>4962</v>
+        <v>4969</v>
       </c>
       <c r="F230" t="n">
-        <v>8.325900000000001</v>
+        <v>39.8098</v>
       </c>
       <c r="G230" t="n">
-        <v>5010.466666666666</v>
+        <v>5011.016666666666</v>
       </c>
       <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6362,24 +7054,27 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>4950</v>
+        <v>4962</v>
       </c>
       <c r="C231" t="n">
-        <v>4950</v>
+        <v>4962</v>
       </c>
       <c r="D231" t="n">
-        <v>4950</v>
+        <v>4962</v>
       </c>
       <c r="E231" t="n">
-        <v>4950</v>
+        <v>4962</v>
       </c>
       <c r="F231" t="n">
-        <v>39.7103</v>
+        <v>8.325900000000001</v>
       </c>
       <c r="G231" t="n">
-        <v>5009.916666666667</v>
+        <v>5010.466666666666</v>
       </c>
       <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6388,24 +7083,27 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>4960</v>
+        <v>4950</v>
       </c>
       <c r="C232" t="n">
-        <v>4960</v>
+        <v>4950</v>
       </c>
       <c r="D232" t="n">
-        <v>4960</v>
+        <v>4950</v>
       </c>
       <c r="E232" t="n">
-        <v>4960</v>
+        <v>4950</v>
       </c>
       <c r="F232" t="n">
-        <v>14.0343</v>
+        <v>39.7103</v>
       </c>
       <c r="G232" t="n">
-        <v>5009.316666666667</v>
+        <v>5009.916666666667</v>
       </c>
       <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6414,24 +7112,27 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>4962</v>
+        <v>4960</v>
       </c>
       <c r="C233" t="n">
-        <v>4962</v>
+        <v>4960</v>
       </c>
       <c r="D233" t="n">
-        <v>4962</v>
+        <v>4960</v>
       </c>
       <c r="E233" t="n">
-        <v>4962</v>
+        <v>4960</v>
       </c>
       <c r="F233" t="n">
-        <v>91.66370000000001</v>
+        <v>14.0343</v>
       </c>
       <c r="G233" t="n">
-        <v>5008.516666666666</v>
+        <v>5009.316666666667</v>
       </c>
       <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6440,24 +7141,27 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>4975</v>
+        <v>4962</v>
       </c>
       <c r="C234" t="n">
-        <v>4975</v>
+        <v>4962</v>
       </c>
       <c r="D234" t="n">
-        <v>4975</v>
+        <v>4962</v>
       </c>
       <c r="E234" t="n">
-        <v>4975</v>
+        <v>4962</v>
       </c>
       <c r="F234" t="n">
-        <v>113.4444</v>
+        <v>91.66370000000001</v>
       </c>
       <c r="G234" t="n">
-        <v>5008.016666666666</v>
+        <v>5008.516666666666</v>
       </c>
       <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6478,12 +7182,15 @@
         <v>4975</v>
       </c>
       <c r="F235" t="n">
-        <v>2</v>
+        <v>113.4444</v>
       </c>
       <c r="G235" t="n">
-        <v>5007.433333333333</v>
+        <v>5008.016666666666</v>
       </c>
       <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6495,21 +7202,24 @@
         <v>4975</v>
       </c>
       <c r="C236" t="n">
-        <v>4969</v>
+        <v>4975</v>
       </c>
       <c r="D236" t="n">
-        <v>4985</v>
+        <v>4975</v>
       </c>
       <c r="E236" t="n">
-        <v>4969</v>
+        <v>4975</v>
       </c>
       <c r="F236" t="n">
-        <v>2107.100611033099</v>
+        <v>2</v>
       </c>
       <c r="G236" t="n">
-        <v>5006.583333333333</v>
+        <v>5007.433333333333</v>
       </c>
       <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6518,24 +7228,27 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>4969</v>
+        <v>4975</v>
       </c>
       <c r="C237" t="n">
         <v>4969</v>
       </c>
       <c r="D237" t="n">
-        <v>4969</v>
+        <v>4985</v>
       </c>
       <c r="E237" t="n">
         <v>4969</v>
       </c>
       <c r="F237" t="n">
-        <v>34.67</v>
+        <v>2107.100611033099</v>
       </c>
       <c r="G237" t="n">
-        <v>5005.483333333334</v>
+        <v>5006.583333333333</v>
       </c>
       <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6556,12 +7269,15 @@
         <v>4969</v>
       </c>
       <c r="F238" t="n">
-        <v>113.2102</v>
+        <v>34.67</v>
       </c>
       <c r="G238" t="n">
-        <v>5004.55</v>
+        <v>5005.483333333334</v>
       </c>
       <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6570,24 +7286,27 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>4966</v>
+        <v>4969</v>
       </c>
       <c r="C239" t="n">
-        <v>4966</v>
+        <v>4969</v>
       </c>
       <c r="D239" t="n">
-        <v>4966</v>
+        <v>4969</v>
       </c>
       <c r="E239" t="n">
-        <v>4966</v>
+        <v>4969</v>
       </c>
       <c r="F239" t="n">
-        <v>45.4864</v>
+        <v>113.2102</v>
       </c>
       <c r="G239" t="n">
-        <v>5003.483333333334</v>
+        <v>5004.55</v>
       </c>
       <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6608,12 +7327,15 @@
         <v>4966</v>
       </c>
       <c r="F240" t="n">
-        <v>50.678</v>
+        <v>45.4864</v>
       </c>
       <c r="G240" t="n">
-        <v>5002.583333333333</v>
+        <v>5003.483333333334</v>
       </c>
       <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6622,24 +7344,27 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>4976</v>
+        <v>4966</v>
       </c>
       <c r="C241" t="n">
-        <v>4970</v>
+        <v>4966</v>
       </c>
       <c r="D241" t="n">
-        <v>4976</v>
+        <v>4966</v>
       </c>
       <c r="E241" t="n">
-        <v>4970</v>
+        <v>4966</v>
       </c>
       <c r="F241" t="n">
-        <v>115.9079</v>
+        <v>50.678</v>
       </c>
       <c r="G241" t="n">
-        <v>5001.833333333333</v>
+        <v>5002.583333333333</v>
       </c>
       <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6648,24 +7373,27 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>4970</v>
+        <v>4976</v>
       </c>
       <c r="C242" t="n">
         <v>4970</v>
       </c>
       <c r="D242" t="n">
-        <v>4970</v>
+        <v>4976</v>
       </c>
       <c r="E242" t="n">
         <v>4970</v>
       </c>
       <c r="F242" t="n">
-        <v>64.6176</v>
+        <v>115.9079</v>
       </c>
       <c r="G242" t="n">
-        <v>5001.166666666667</v>
+        <v>5001.833333333333</v>
       </c>
       <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6674,24 +7402,27 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>4971</v>
+        <v>4970</v>
       </c>
       <c r="C243" t="n">
-        <v>4971</v>
+        <v>4970</v>
       </c>
       <c r="D243" t="n">
-        <v>4971</v>
+        <v>4970</v>
       </c>
       <c r="E243" t="n">
-        <v>4971</v>
+        <v>4970</v>
       </c>
       <c r="F243" t="n">
-        <v>16.8508</v>
+        <v>64.6176</v>
       </c>
       <c r="G243" t="n">
-        <v>5000.433333333333</v>
+        <v>5001.166666666667</v>
       </c>
       <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6700,24 +7431,27 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>4970</v>
+        <v>4971</v>
       </c>
       <c r="C244" t="n">
-        <v>4970</v>
+        <v>4971</v>
       </c>
       <c r="D244" t="n">
-        <v>4970</v>
+        <v>4971</v>
       </c>
       <c r="E244" t="n">
-        <v>4970</v>
+        <v>4971</v>
       </c>
       <c r="F244" t="n">
-        <v>5.1007</v>
+        <v>16.8508</v>
       </c>
       <c r="G244" t="n">
-        <v>4999.183333333333</v>
+        <v>5000.433333333333</v>
       </c>
       <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6726,24 +7460,27 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>4981</v>
+        <v>4970</v>
       </c>
       <c r="C245" t="n">
-        <v>4988</v>
+        <v>4970</v>
       </c>
       <c r="D245" t="n">
-        <v>4988</v>
+        <v>4970</v>
       </c>
       <c r="E245" t="n">
-        <v>4981</v>
+        <v>4970</v>
       </c>
       <c r="F245" t="n">
-        <v>182.0707</v>
+        <v>5.1007</v>
       </c>
       <c r="G245" t="n">
-        <v>4998.316666666667</v>
+        <v>4999.183333333333</v>
       </c>
       <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6752,24 +7489,27 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>4989</v>
+        <v>4981</v>
       </c>
       <c r="C246" t="n">
-        <v>4979</v>
+        <v>4988</v>
       </c>
       <c r="D246" t="n">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="E246" t="n">
-        <v>4979</v>
+        <v>4981</v>
       </c>
       <c r="F246" t="n">
-        <v>201.0704</v>
+        <v>182.0707</v>
       </c>
       <c r="G246" t="n">
-        <v>4997.3</v>
+        <v>4998.316666666667</v>
       </c>
       <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6778,24 +7518,27 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>4981</v>
+        <v>4989</v>
       </c>
       <c r="C247" t="n">
-        <v>4981</v>
+        <v>4979</v>
       </c>
       <c r="D247" t="n">
-        <v>4981</v>
+        <v>4989</v>
       </c>
       <c r="E247" t="n">
-        <v>4981</v>
+        <v>4979</v>
       </c>
       <c r="F247" t="n">
-        <v>46.4023</v>
+        <v>201.0704</v>
       </c>
       <c r="G247" t="n">
-        <v>4996.15</v>
+        <v>4997.3</v>
       </c>
       <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6804,24 +7547,27 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>4991</v>
+        <v>4981</v>
       </c>
       <c r="C248" t="n">
-        <v>5000</v>
+        <v>4981</v>
       </c>
       <c r="D248" t="n">
-        <v>5000</v>
+        <v>4981</v>
       </c>
       <c r="E248" t="n">
-        <v>4991</v>
+        <v>4981</v>
       </c>
       <c r="F248" t="n">
-        <v>109.2012</v>
+        <v>46.4023</v>
       </c>
       <c r="G248" t="n">
-        <v>4995.066666666667</v>
+        <v>4996.15</v>
       </c>
       <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6830,7 +7576,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>5000</v>
+        <v>4991</v>
       </c>
       <c r="C249" t="n">
         <v>5000</v>
@@ -6839,15 +7585,18 @@
         <v>5000</v>
       </c>
       <c r="E249" t="n">
-        <v>5000</v>
+        <v>4991</v>
       </c>
       <c r="F249" t="n">
-        <v>2.0002</v>
+        <v>109.2012</v>
       </c>
       <c r="G249" t="n">
-        <v>4994.15</v>
+        <v>4995.066666666667</v>
       </c>
       <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6856,24 +7605,27 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>4996</v>
+        <v>5000</v>
       </c>
       <c r="C250" t="n">
-        <v>4996</v>
+        <v>5000</v>
       </c>
       <c r="D250" t="n">
-        <v>4996</v>
+        <v>5000</v>
       </c>
       <c r="E250" t="n">
-        <v>4996</v>
+        <v>5000</v>
       </c>
       <c r="F250" t="n">
-        <v>12.6738</v>
+        <v>2.0002</v>
       </c>
       <c r="G250" t="n">
-        <v>4993.25</v>
+        <v>4994.15</v>
       </c>
       <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6882,24 +7634,27 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>4999</v>
+        <v>4996</v>
       </c>
       <c r="C251" t="n">
-        <v>4999</v>
+        <v>4996</v>
       </c>
       <c r="D251" t="n">
-        <v>4999</v>
+        <v>4996</v>
       </c>
       <c r="E251" t="n">
-        <v>4999</v>
+        <v>4996</v>
       </c>
       <c r="F251" t="n">
-        <v>4.7715</v>
+        <v>12.6738</v>
       </c>
       <c r="G251" t="n">
-        <v>4992.4</v>
+        <v>4993.25</v>
       </c>
       <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6908,24 +7663,27 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>4988</v>
+        <v>4999</v>
       </c>
       <c r="C252" t="n">
-        <v>4980</v>
+        <v>4999</v>
       </c>
       <c r="D252" t="n">
-        <v>4988</v>
+        <v>4999</v>
       </c>
       <c r="E252" t="n">
-        <v>4980</v>
+        <v>4999</v>
       </c>
       <c r="F252" t="n">
-        <v>55.7872</v>
+        <v>4.7715</v>
       </c>
       <c r="G252" t="n">
-        <v>4991.316666666667</v>
+        <v>4992.4</v>
       </c>
       <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6934,24 +7692,27 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>4978</v>
+        <v>4988</v>
       </c>
       <c r="C253" t="n">
-        <v>4978</v>
+        <v>4980</v>
       </c>
       <c r="D253" t="n">
-        <v>4978</v>
+        <v>4988</v>
       </c>
       <c r="E253" t="n">
-        <v>4978</v>
+        <v>4980</v>
       </c>
       <c r="F253" t="n">
-        <v>22.7222</v>
+        <v>55.7872</v>
       </c>
       <c r="G253" t="n">
-        <v>4990.366666666667</v>
+        <v>4991.316666666667</v>
       </c>
       <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6960,24 +7721,27 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>4987</v>
+        <v>4978</v>
       </c>
       <c r="C254" t="n">
-        <v>4987</v>
+        <v>4978</v>
       </c>
       <c r="D254" t="n">
-        <v>4987</v>
+        <v>4978</v>
       </c>
       <c r="E254" t="n">
-        <v>4987</v>
+        <v>4978</v>
       </c>
       <c r="F254" t="n">
-        <v>100.2337</v>
+        <v>22.7222</v>
       </c>
       <c r="G254" t="n">
-        <v>4989.65</v>
+        <v>4990.366666666667</v>
       </c>
       <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6986,24 +7750,27 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>4993</v>
+        <v>4987</v>
       </c>
       <c r="C255" t="n">
-        <v>4985</v>
+        <v>4987</v>
       </c>
       <c r="D255" t="n">
-        <v>4993</v>
+        <v>4987</v>
       </c>
       <c r="E255" t="n">
-        <v>4985</v>
+        <v>4987</v>
       </c>
       <c r="F255" t="n">
-        <v>38.4306</v>
+        <v>100.2337</v>
       </c>
       <c r="G255" t="n">
-        <v>4988.816666666667</v>
+        <v>4989.65</v>
       </c>
       <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7012,24 +7779,27 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>4987</v>
+        <v>4993</v>
       </c>
       <c r="C256" t="n">
-        <v>4980</v>
+        <v>4985</v>
       </c>
       <c r="D256" t="n">
-        <v>4987</v>
+        <v>4993</v>
       </c>
       <c r="E256" t="n">
-        <v>4980</v>
+        <v>4985</v>
       </c>
       <c r="F256" t="n">
-        <v>500.745</v>
+        <v>38.4306</v>
       </c>
       <c r="G256" t="n">
-        <v>4988.066666666667</v>
+        <v>4988.816666666667</v>
       </c>
       <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7041,21 +7811,24 @@
         <v>4987</v>
       </c>
       <c r="C257" t="n">
-        <v>4987</v>
+        <v>4980</v>
       </c>
       <c r="D257" t="n">
         <v>4987</v>
       </c>
       <c r="E257" t="n">
-        <v>4987</v>
+        <v>4980</v>
       </c>
       <c r="F257" t="n">
-        <v>30.2349</v>
+        <v>500.745</v>
       </c>
       <c r="G257" t="n">
-        <v>4987.433333333333</v>
+        <v>4988.066666666667</v>
       </c>
       <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7067,21 +7840,24 @@
         <v>4987</v>
       </c>
       <c r="C258" t="n">
-        <v>4980</v>
+        <v>4987</v>
       </c>
       <c r="D258" t="n">
         <v>4987</v>
       </c>
       <c r="E258" t="n">
-        <v>4980</v>
+        <v>4987</v>
       </c>
       <c r="F258" t="n">
-        <v>149.5062</v>
+        <v>30.2349</v>
       </c>
       <c r="G258" t="n">
-        <v>4986.766666666666</v>
+        <v>4987.433333333333</v>
       </c>
       <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7090,24 +7866,27 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>4986</v>
+        <v>4987</v>
       </c>
       <c r="C259" t="n">
-        <v>4986</v>
+        <v>4980</v>
       </c>
       <c r="D259" t="n">
-        <v>4986</v>
+        <v>4987</v>
       </c>
       <c r="E259" t="n">
-        <v>4986</v>
+        <v>4980</v>
       </c>
       <c r="F259" t="n">
-        <v>57.83</v>
+        <v>149.5062</v>
       </c>
       <c r="G259" t="n">
-        <v>4986.283333333334</v>
+        <v>4986.766666666666</v>
       </c>
       <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7116,24 +7895,27 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>4988</v>
+        <v>4986</v>
       </c>
       <c r="C260" t="n">
-        <v>4989</v>
+        <v>4986</v>
       </c>
       <c r="D260" t="n">
-        <v>4989</v>
+        <v>4986</v>
       </c>
       <c r="E260" t="n">
-        <v>4988</v>
+        <v>4986</v>
       </c>
       <c r="F260" t="n">
-        <v>106.3577</v>
+        <v>57.83</v>
       </c>
       <c r="G260" t="n">
-        <v>4986.1</v>
+        <v>4986.283333333334</v>
       </c>
       <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7142,24 +7924,27 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>5005</v>
+        <v>4988</v>
       </c>
       <c r="C261" t="n">
-        <v>5005</v>
+        <v>4989</v>
       </c>
       <c r="D261" t="n">
-        <v>5005</v>
+        <v>4989</v>
       </c>
       <c r="E261" t="n">
-        <v>5005</v>
+        <v>4988</v>
       </c>
       <c r="F261" t="n">
-        <v>73.0133</v>
+        <v>106.3577</v>
       </c>
       <c r="G261" t="n">
-        <v>4985.85</v>
+        <v>4986.1</v>
       </c>
       <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7168,24 +7953,27 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>4995</v>
+        <v>5005</v>
       </c>
       <c r="C262" t="n">
-        <v>4995</v>
+        <v>5005</v>
       </c>
       <c r="D262" t="n">
-        <v>4995</v>
+        <v>5005</v>
       </c>
       <c r="E262" t="n">
-        <v>4995</v>
+        <v>5005</v>
       </c>
       <c r="F262" t="n">
-        <v>10</v>
+        <v>73.0133</v>
       </c>
       <c r="G262" t="n">
-        <v>4985.6</v>
+        <v>4985.85</v>
       </c>
       <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7194,24 +7982,27 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>5005</v>
+        <v>4995</v>
       </c>
       <c r="C263" t="n">
-        <v>5005</v>
+        <v>4995</v>
       </c>
       <c r="D263" t="n">
-        <v>5005</v>
+        <v>4995</v>
       </c>
       <c r="E263" t="n">
-        <v>5005</v>
+        <v>4995</v>
       </c>
       <c r="F263" t="n">
-        <v>99.9000999000999</v>
+        <v>10</v>
       </c>
       <c r="G263" t="n">
-        <v>4985.516666666666</v>
+        <v>4985.6</v>
       </c>
       <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7220,24 +8011,27 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>4992</v>
+        <v>5005</v>
       </c>
       <c r="C264" t="n">
-        <v>4992</v>
+        <v>5005</v>
       </c>
       <c r="D264" t="n">
-        <v>4992</v>
+        <v>5005</v>
       </c>
       <c r="E264" t="n">
-        <v>4992</v>
+        <v>5005</v>
       </c>
       <c r="F264" t="n">
-        <v>8.497299999999999</v>
+        <v>99.9000999000999</v>
       </c>
       <c r="G264" t="n">
-        <v>4985.216666666666</v>
+        <v>4985.516666666666</v>
       </c>
       <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7258,12 +8052,15 @@
         <v>4992</v>
       </c>
       <c r="F265" t="n">
-        <v>392.4287</v>
+        <v>8.497299999999999</v>
       </c>
       <c r="G265" t="n">
-        <v>4985</v>
+        <v>4985.216666666666</v>
       </c>
       <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7275,21 +8072,24 @@
         <v>4992</v>
       </c>
       <c r="C266" t="n">
-        <v>4991</v>
+        <v>4992</v>
       </c>
       <c r="D266" t="n">
         <v>4992</v>
       </c>
       <c r="E266" t="n">
-        <v>4991</v>
+        <v>4992</v>
       </c>
       <c r="F266" t="n">
-        <v>66.7471</v>
+        <v>392.4287</v>
       </c>
       <c r="G266" t="n">
-        <v>4984.766666666666</v>
+        <v>4985</v>
       </c>
       <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7301,7 +8101,7 @@
         <v>4992</v>
       </c>
       <c r="C267" t="n">
-        <v>4992</v>
+        <v>4991</v>
       </c>
       <c r="D267" t="n">
         <v>4992</v>
@@ -7310,12 +8110,15 @@
         <v>4991</v>
       </c>
       <c r="F267" t="n">
-        <v>64.0543</v>
+        <v>66.7471</v>
       </c>
       <c r="G267" t="n">
-        <v>4984.55</v>
+        <v>4984.766666666666</v>
       </c>
       <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7324,24 +8127,27 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>4991</v>
+        <v>4992</v>
       </c>
       <c r="C268" t="n">
-        <v>4991</v>
+        <v>4992</v>
       </c>
       <c r="D268" t="n">
-        <v>4991</v>
+        <v>4992</v>
       </c>
       <c r="E268" t="n">
         <v>4991</v>
       </c>
       <c r="F268" t="n">
-        <v>6.1466</v>
+        <v>64.0543</v>
       </c>
       <c r="G268" t="n">
-        <v>4984.233333333334</v>
+        <v>4984.55</v>
       </c>
       <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7350,24 +8156,27 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>4992</v>
+        <v>4991</v>
       </c>
       <c r="C269" t="n">
-        <v>4992</v>
+        <v>4991</v>
       </c>
       <c r="D269" t="n">
-        <v>4992</v>
+        <v>4991</v>
       </c>
       <c r="E269" t="n">
-        <v>4992</v>
+        <v>4991</v>
       </c>
       <c r="F269" t="n">
-        <v>25.491</v>
+        <v>6.1466</v>
       </c>
       <c r="G269" t="n">
-        <v>4984.1</v>
+        <v>4984.233333333334</v>
       </c>
       <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7376,24 +8185,27 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>4994</v>
+        <v>4992</v>
       </c>
       <c r="C270" t="n">
-        <v>4994</v>
+        <v>4992</v>
       </c>
       <c r="D270" t="n">
-        <v>4994</v>
+        <v>4992</v>
       </c>
       <c r="E270" t="n">
-        <v>4994</v>
+        <v>4992</v>
       </c>
       <c r="F270" t="n">
-        <v>7.81</v>
+        <v>25.491</v>
       </c>
       <c r="G270" t="n">
-        <v>4984</v>
+        <v>4984.1</v>
       </c>
       <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7402,24 +8214,27 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>4990</v>
+        <v>4994</v>
       </c>
       <c r="C271" t="n">
-        <v>4987</v>
+        <v>4994</v>
       </c>
       <c r="D271" t="n">
-        <v>4990</v>
+        <v>4994</v>
       </c>
       <c r="E271" t="n">
-        <v>4971</v>
+        <v>4994</v>
       </c>
       <c r="F271" t="n">
-        <v>682.9924999999999</v>
+        <v>7.81</v>
       </c>
       <c r="G271" t="n">
-        <v>4983.916666666667</v>
+        <v>4984</v>
       </c>
       <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7428,24 +8243,27 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>4986</v>
+        <v>4990</v>
       </c>
       <c r="C272" t="n">
-        <v>4981</v>
+        <v>4987</v>
       </c>
       <c r="D272" t="n">
-        <v>4986</v>
+        <v>4990</v>
       </c>
       <c r="E272" t="n">
-        <v>4981</v>
+        <v>4971</v>
       </c>
       <c r="F272" t="n">
-        <v>62.2194</v>
+        <v>682.9924999999999</v>
       </c>
       <c r="G272" t="n">
-        <v>4983.666666666667</v>
+        <v>4983.916666666667</v>
       </c>
       <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7454,24 +8272,27 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>4972</v>
+        <v>4986</v>
       </c>
       <c r="C273" t="n">
-        <v>4972</v>
+        <v>4981</v>
       </c>
       <c r="D273" t="n">
-        <v>4972</v>
+        <v>4986</v>
       </c>
       <c r="E273" t="n">
-        <v>4972</v>
+        <v>4981</v>
       </c>
       <c r="F273" t="n">
-        <v>152.6628</v>
+        <v>62.2194</v>
       </c>
       <c r="G273" t="n">
-        <v>4983.366666666667</v>
+        <v>4983.666666666667</v>
       </c>
       <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7480,24 +8301,27 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>4982</v>
+        <v>4972</v>
       </c>
       <c r="C274" t="n">
-        <v>4982</v>
+        <v>4972</v>
       </c>
       <c r="D274" t="n">
-        <v>4982</v>
+        <v>4972</v>
       </c>
       <c r="E274" t="n">
-        <v>4982</v>
+        <v>4972</v>
       </c>
       <c r="F274" t="n">
-        <v>97.59999999999999</v>
+        <v>152.6628</v>
       </c>
       <c r="G274" t="n">
-        <v>4983.233333333334</v>
+        <v>4983.366666666667</v>
       </c>
       <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7506,24 +8330,27 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>4981</v>
+        <v>4982</v>
       </c>
       <c r="C275" t="n">
-        <v>4981</v>
+        <v>4982</v>
       </c>
       <c r="D275" t="n">
-        <v>4981</v>
+        <v>4982</v>
       </c>
       <c r="E275" t="n">
-        <v>4981</v>
+        <v>4982</v>
       </c>
       <c r="F275" t="n">
-        <v>97.59990000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="G275" t="n">
-        <v>4982.833333333333</v>
+        <v>4983.233333333334</v>
       </c>
       <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7532,24 +8359,27 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>4970</v>
+        <v>4981</v>
       </c>
       <c r="C276" t="n">
-        <v>4970</v>
+        <v>4981</v>
       </c>
       <c r="D276" t="n">
-        <v>4970</v>
+        <v>4981</v>
       </c>
       <c r="E276" t="n">
-        <v>4970</v>
+        <v>4981</v>
       </c>
       <c r="F276" t="n">
-        <v>8.491300000000001</v>
+        <v>97.59990000000001</v>
       </c>
       <c r="G276" t="n">
-        <v>4982.5</v>
+        <v>4982.833333333333</v>
       </c>
       <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7561,21 +8391,24 @@
         <v>4970</v>
       </c>
       <c r="C277" t="n">
-        <v>4952</v>
+        <v>4970</v>
       </c>
       <c r="D277" t="n">
         <v>4970</v>
       </c>
       <c r="E277" t="n">
-        <v>4952</v>
+        <v>4970</v>
       </c>
       <c r="F277" t="n">
-        <v>206.6088</v>
+        <v>8.491300000000001</v>
       </c>
       <c r="G277" t="n">
-        <v>4981.866666666667</v>
+        <v>4982.5</v>
       </c>
       <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7584,24 +8417,27 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>4951</v>
+        <v>4970</v>
       </c>
       <c r="C278" t="n">
-        <v>4947</v>
+        <v>4952</v>
       </c>
       <c r="D278" t="n">
-        <v>4955</v>
+        <v>4970</v>
       </c>
       <c r="E278" t="n">
-        <v>4947</v>
+        <v>4952</v>
       </c>
       <c r="F278" t="n">
-        <v>217.0868</v>
+        <v>206.6088</v>
       </c>
       <c r="G278" t="n">
-        <v>4981.2</v>
+        <v>4981.866666666667</v>
       </c>
       <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7610,24 +8446,27 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>4932</v>
+        <v>4951</v>
       </c>
       <c r="C279" t="n">
-        <v>4936</v>
+        <v>4947</v>
       </c>
       <c r="D279" t="n">
-        <v>4936</v>
+        <v>4955</v>
       </c>
       <c r="E279" t="n">
-        <v>4932</v>
+        <v>4947</v>
       </c>
       <c r="F279" t="n">
-        <v>29.9379</v>
+        <v>217.0868</v>
       </c>
       <c r="G279" t="n">
-        <v>4980.3</v>
+        <v>4981.2</v>
       </c>
       <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7636,24 +8475,27 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>4930</v>
+        <v>4932</v>
       </c>
       <c r="C280" t="n">
-        <v>4930</v>
+        <v>4936</v>
       </c>
       <c r="D280" t="n">
-        <v>4930</v>
+        <v>4936</v>
       </c>
       <c r="E280" t="n">
-        <v>4930</v>
+        <v>4932</v>
       </c>
       <c r="F280" t="n">
-        <v>4.3</v>
+        <v>29.9379</v>
       </c>
       <c r="G280" t="n">
-        <v>4979.266666666666</v>
+        <v>4980.3</v>
       </c>
       <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7662,24 +8504,27 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>4936</v>
+        <v>4930</v>
       </c>
       <c r="C281" t="n">
-        <v>4936</v>
+        <v>4930</v>
       </c>
       <c r="D281" t="n">
-        <v>4936</v>
+        <v>4930</v>
       </c>
       <c r="E281" t="n">
-        <v>4936</v>
+        <v>4930</v>
       </c>
       <c r="F281" t="n">
-        <v>4.5037</v>
+        <v>4.3</v>
       </c>
       <c r="G281" t="n">
-        <v>4978.433333333333</v>
+        <v>4979.266666666666</v>
       </c>
       <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7688,544 +8533,27 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>4941</v>
+        <v>4936</v>
       </c>
       <c r="C282" t="n">
-        <v>4939</v>
+        <v>4936</v>
       </c>
       <c r="D282" t="n">
-        <v>4941</v>
+        <v>4936</v>
       </c>
       <c r="E282" t="n">
-        <v>4939</v>
+        <v>4936</v>
       </c>
       <c r="F282" t="n">
-        <v>63.91</v>
+        <v>4.5037</v>
       </c>
       <c r="G282" t="n">
-        <v>4977.516666666666</v>
+        <v>4978.433333333333</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>4935</v>
-      </c>
-      <c r="C283" t="n">
-        <v>4935</v>
-      </c>
-      <c r="D283" t="n">
-        <v>4935</v>
-      </c>
-      <c r="E283" t="n">
-        <v>4935</v>
-      </c>
-      <c r="F283" t="n">
-        <v>20</v>
-      </c>
-      <c r="G283" t="n">
-        <v>4976.433333333333</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>4925</v>
-      </c>
-      <c r="C284" t="n">
-        <v>4925</v>
-      </c>
-      <c r="D284" t="n">
-        <v>4925</v>
-      </c>
-      <c r="E284" t="n">
-        <v>4925</v>
-      </c>
-      <c r="F284" t="n">
-        <v>107.3732</v>
-      </c>
-      <c r="G284" t="n">
-        <v>4975.183333333333</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>4935</v>
-      </c>
-      <c r="C285" t="n">
-        <v>4935</v>
-      </c>
-      <c r="D285" t="n">
-        <v>4935</v>
-      </c>
-      <c r="E285" t="n">
-        <v>4935</v>
-      </c>
-      <c r="F285" t="n">
-        <v>6.4222</v>
-      </c>
-      <c r="G285" t="n">
-        <v>4974.416666666667</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>4937</v>
-      </c>
-      <c r="C286" t="n">
-        <v>4940</v>
-      </c>
-      <c r="D286" t="n">
-        <v>4940</v>
-      </c>
-      <c r="E286" t="n">
-        <v>4937</v>
-      </c>
-      <c r="F286" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="G286" t="n">
-        <v>4973.666666666667</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>4960</v>
-      </c>
-      <c r="C287" t="n">
-        <v>4954</v>
-      </c>
-      <c r="D287" t="n">
-        <v>4970</v>
-      </c>
-      <c r="E287" t="n">
-        <v>4954</v>
-      </c>
-      <c r="F287" t="n">
-        <v>730.3262999999999</v>
-      </c>
-      <c r="G287" t="n">
-        <v>4973.2</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>4954</v>
-      </c>
-      <c r="C288" t="n">
-        <v>4952</v>
-      </c>
-      <c r="D288" t="n">
-        <v>4954</v>
-      </c>
-      <c r="E288" t="n">
-        <v>4952</v>
-      </c>
-      <c r="F288" t="n">
-        <v>51.2042</v>
-      </c>
-      <c r="G288" t="n">
-        <v>4972.85</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>4964</v>
-      </c>
-      <c r="C289" t="n">
-        <v>4964</v>
-      </c>
-      <c r="D289" t="n">
-        <v>4964</v>
-      </c>
-      <c r="E289" t="n">
-        <v>4964</v>
-      </c>
-      <c r="F289" t="n">
-        <v>1.6699</v>
-      </c>
-      <c r="G289" t="n">
-        <v>4972.766666666666</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>4974</v>
-      </c>
-      <c r="C290" t="n">
-        <v>4974</v>
-      </c>
-      <c r="D290" t="n">
-        <v>4974</v>
-      </c>
-      <c r="E290" t="n">
-        <v>4974</v>
-      </c>
-      <c r="F290" t="n">
-        <v>22.1149</v>
-      </c>
-      <c r="G290" t="n">
-        <v>4972.966666666666</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>4974</v>
-      </c>
-      <c r="C291" t="n">
-        <v>4962</v>
-      </c>
-      <c r="D291" t="n">
-        <v>4974</v>
-      </c>
-      <c r="E291" t="n">
-        <v>4962</v>
-      </c>
-      <c r="F291" t="n">
-        <v>451.3605</v>
-      </c>
-      <c r="G291" t="n">
-        <v>4973.166666666667</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>4966</v>
-      </c>
-      <c r="C292" t="n">
-        <v>4972</v>
-      </c>
-      <c r="D292" t="n">
-        <v>4972</v>
-      </c>
-      <c r="E292" t="n">
-        <v>4966</v>
-      </c>
-      <c r="F292" t="n">
-        <v>74.42140000000001</v>
-      </c>
-      <c r="G292" t="n">
-        <v>4973.366666666667</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>4973</v>
-      </c>
-      <c r="C293" t="n">
-        <v>4985</v>
-      </c>
-      <c r="D293" t="n">
-        <v>4985</v>
-      </c>
-      <c r="E293" t="n">
-        <v>4973</v>
-      </c>
-      <c r="F293" t="n">
-        <v>497.678</v>
-      </c>
-      <c r="G293" t="n">
-        <v>4973.75</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>4976</v>
-      </c>
-      <c r="C294" t="n">
-        <v>4976</v>
-      </c>
-      <c r="D294" t="n">
-        <v>4976</v>
-      </c>
-      <c r="E294" t="n">
-        <v>4976</v>
-      </c>
-      <c r="F294" t="n">
-        <v>378.9627</v>
-      </c>
-      <c r="G294" t="n">
-        <v>4973.766666666666</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>4985</v>
-      </c>
-      <c r="C295" t="n">
-        <v>4985</v>
-      </c>
-      <c r="D295" t="n">
-        <v>4985</v>
-      </c>
-      <c r="E295" t="n">
-        <v>4985</v>
-      </c>
-      <c r="F295" t="n">
-        <v>93.887</v>
-      </c>
-      <c r="G295" t="n">
-        <v>4973.933333333333</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>4984</v>
-      </c>
-      <c r="C296" t="n">
-        <v>4985</v>
-      </c>
-      <c r="D296" t="n">
-        <v>4985</v>
-      </c>
-      <c r="E296" t="n">
-        <v>4984</v>
-      </c>
-      <c r="F296" t="n">
-        <v>156.2789</v>
-      </c>
-      <c r="G296" t="n">
-        <v>4974.2</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>4987</v>
-      </c>
-      <c r="C297" t="n">
-        <v>4987</v>
-      </c>
-      <c r="D297" t="n">
-        <v>4987</v>
-      </c>
-      <c r="E297" t="n">
-        <v>4987</v>
-      </c>
-      <c r="F297" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="G297" t="n">
-        <v>4974.5</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>4987</v>
-      </c>
-      <c r="C298" t="n">
-        <v>4987</v>
-      </c>
-      <c r="D298" t="n">
-        <v>4987</v>
-      </c>
-      <c r="E298" t="n">
-        <v>4987</v>
-      </c>
-      <c r="F298" t="n">
-        <v>110.2879</v>
-      </c>
-      <c r="G298" t="n">
-        <v>4974.8</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>4987</v>
-      </c>
-      <c r="C299" t="n">
-        <v>4987</v>
-      </c>
-      <c r="D299" t="n">
-        <v>4987</v>
-      </c>
-      <c r="E299" t="n">
-        <v>4987</v>
-      </c>
-      <c r="F299" t="n">
-        <v>145.0066</v>
-      </c>
-      <c r="G299" t="n">
-        <v>4975.15</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>4987</v>
-      </c>
-      <c r="C300" t="n">
-        <v>4987</v>
-      </c>
-      <c r="D300" t="n">
-        <v>4987</v>
-      </c>
-      <c r="E300" t="n">
-        <v>4987</v>
-      </c>
-      <c r="F300" t="n">
-        <v>1</v>
-      </c>
-      <c r="G300" t="n">
-        <v>4975.5</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>4980</v>
-      </c>
-      <c r="C301" t="n">
-        <v>4980</v>
-      </c>
-      <c r="D301" t="n">
-        <v>4980</v>
-      </c>
-      <c r="E301" t="n">
-        <v>4980</v>
-      </c>
-      <c r="F301" t="n">
-        <v>4.2443</v>
-      </c>
-      <c r="G301" t="n">
-        <v>4975.666666666667</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>4988</v>
-      </c>
-      <c r="C302" t="n">
-        <v>4989</v>
-      </c>
-      <c r="D302" t="n">
-        <v>4989</v>
-      </c>
-      <c r="E302" t="n">
-        <v>4988</v>
-      </c>
-      <c r="F302" t="n">
-        <v>201.002</v>
-      </c>
-      <c r="G302" t="n">
-        <v>4975.983333333334</v>
-      </c>
-      <c r="H302" t="n">
+      <c r="I282" t="n">
         <v>0</v>
       </c>
     </row>
